--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/1_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/1_11R22.xlsx
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1186693222283593</v>
+        <v>0.1170773836663444</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.1595449640769495</v>
+        <v>0.1569220062312459</v>
       </c>
       <c r="G2">
-        <v>0.005939617498157672</v>
+        <v>0.007191096046310168</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -701,46 +701,46 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0490179863651893</v>
+        <v>0.04918288554716871</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.05310894857070642</v>
+        <v>0.05317066011496376</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.208917011303313</v>
+        <v>0.2050487266452717</v>
       </c>
       <c r="O2">
-        <v>0.04597460016130846</v>
+        <v>0.0462162636391376</v>
       </c>
       <c r="P2">
-        <v>0.007336005600557827</v>
+        <v>0.008552262608546605</v>
       </c>
       <c r="Q2">
-        <v>0.04336167481457908</v>
+        <v>0.04366924493747806</v>
       </c>
       <c r="R2">
-        <v>0.007705953746174922</v>
+        <v>0.008912879434706776</v>
       </c>
       <c r="S2">
-        <v>0.1795641166099528</v>
+        <v>0.176436209328077</v>
       </c>
       <c r="T2">
-        <v>0.001703249647175059</v>
+        <v>0.003061583445780633</v>
       </c>
       <c r="U2">
-        <v>0.04712606372379931</v>
+        <v>0.04733868347084644</v>
       </c>
       <c r="V2">
         <v>0</v>
       </c>
       <c r="W2">
-        <v>0.03883534528647627</v>
+        <v>0.03925708445521163</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -749,16 +749,16 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.01180807826920115</v>
+        <v>0.01291153476933473</v>
       </c>
       <c r="AA2">
-        <v>0.006265197767570857</v>
+        <v>0.007508464101285303</v>
       </c>
       <c r="AB2">
-        <v>0.01274100203781232</v>
+        <v>0.01382092710572492</v>
       </c>
       <c r="AC2">
-        <v>0.002380862292716817</v>
+        <v>0.00372210445256568</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -790,13 +790,13 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.12552570646785</v>
+        <v>0.1181133407004124</v>
       </c>
       <c r="E3">
-        <v>0.01642173196247968</v>
+        <v>0.02081192051831602</v>
       </c>
       <c r="F3">
-        <v>0.1217878471268516</v>
+        <v>0.114779832237784</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -808,58 +808,58 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0404592259074496</v>
+        <v>0.0422491074683569</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.003381069783553975</v>
       </c>
       <c r="L3">
-        <v>0.1332021971089895</v>
+        <v>0.1249594106514268</v>
       </c>
       <c r="M3">
-        <v>0.02222063095063881</v>
+        <v>0.02598351128389929</v>
       </c>
       <c r="N3">
-        <v>0.1160573197135972</v>
+        <v>0.1096692168066784</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.005172434140161634</v>
       </c>
       <c r="Q3">
-        <v>0.01906981225561625</v>
+        <v>0.02317353909771734</v>
       </c>
       <c r="R3">
-        <v>0.05480718173529305</v>
+        <v>0.05504494268048694</v>
       </c>
       <c r="S3">
-        <v>0.1770808881746029</v>
+        <v>0.1640914310546386</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.0835358613527996</v>
+        <v>0.08066583632265431</v>
       </c>
       <c r="V3">
         <v>0</v>
       </c>
       <c r="W3">
-        <v>0.03710604179388791</v>
+        <v>0.03925866117287811</v>
       </c>
       <c r="X3">
         <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.01339939868679957</v>
+        <v>0.01811653456816617</v>
       </c>
       <c r="Z3">
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>0.0009573124012796279</v>
       </c>
       <c r="AB3">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.02857344154348493</v>
+        <v>0.03164909308909161</v>
       </c>
       <c r="AE3">
-        <v>0.009631548163594437</v>
+        <v>0.01475627928320706</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.001121167056065033</v>
+        <v>0.00716652673929094</v>
       </c>
       <c r="AI3">
         <v>0</v>
@@ -897,16 +897,16 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0883374007051044</v>
+        <v>0.09235440524709831</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.1607867789549209</v>
+        <v>0.1768897319283255</v>
       </c>
       <c r="G4">
-        <v>0.02930048459878909</v>
+        <v>0.02346899711991109</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -915,61 +915,61 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.01611249051806235</v>
+        <v>0.008080992214746157</v>
       </c>
       <c r="K4">
-        <v>0.009186831334089731</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.06475247643726263</v>
+        <v>0.06483506241907262</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.1930990455494609</v>
+        <v>0.2145923054819815</v>
       </c>
       <c r="O4">
-        <v>0.05041779240204328</v>
+        <v>0.04810907764096987</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.04027033369504146</v>
+        <v>0.03626882783478418</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1905388619930614</v>
+        <v>0.2116050341135803</v>
       </c>
       <c r="T4">
-        <v>0.04422844570485494</v>
+        <v>0.04088722898429742</v>
       </c>
       <c r="U4">
-        <v>0.05105489072970067</v>
+        <v>0.04885245621174065</v>
       </c>
       <c r="V4">
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0.03722659825632727</v>
+        <v>0.03271733883848511</v>
       </c>
       <c r="X4">
         <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.008374296173449449</v>
+        <v>0</v>
       </c>
       <c r="Z4">
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.0036512674273713</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.002328002501664623</v>
+        <v>0</v>
       </c>
       <c r="AC4">
         <v>0</v>
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.01033400301879576</v>
+        <v>0.001338541965007463</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1004,70 +1004,70 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.09492978098295007</v>
+        <v>0.09694415111231926</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.1469962045922749</v>
+        <v>0.1521430309751955</v>
       </c>
       <c r="G5">
-        <v>0.01515916605229003</v>
+        <v>0.01237432117384293</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.00348706963084697</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.01962921977451825</v>
+        <v>0.01711330536536878</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1015538833258328</v>
+        <v>0.1039667772901367</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.1837792689304104</v>
+        <v>0.191139063516704</v>
       </c>
       <c r="O5">
-        <v>0.02593314497203656</v>
+        <v>0.02379649167855454</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.05303159366174509</v>
+        <v>0.05252525601461023</v>
       </c>
       <c r="R5">
-        <v>0.0009554333648938773</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.2191018809255556</v>
+        <v>0.2285867789694284</v>
       </c>
       <c r="T5">
-        <v>0.01022654552502888</v>
+        <v>0.007144940912651287</v>
       </c>
       <c r="U5">
-        <v>0.0672485733634037</v>
+        <v>0.0675975674999003</v>
       </c>
       <c r="V5">
         <v>0</v>
       </c>
       <c r="W5">
-        <v>0.03217399601745624</v>
+        <v>0.03041280912879961</v>
       </c>
       <c r="X5">
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.009210624870889444</v>
+        <v>0.006067899736195026</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -1082,10 +1082,10 @@
         <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.003562113022024646</v>
+        <v>7.955820367461382E-05</v>
       </c>
       <c r="AE5">
-        <v>0.01302150098784271</v>
+        <v>0.010108048422619</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.07690499236370145</v>
+        <v>0.08065556527565573</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.1394005087564766</v>
+        <v>0.1640893417732857</v>
       </c>
       <c r="G6">
-        <v>0.03423512403230967</v>
+        <v>0.02368974655723944</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1132,55 +1132,55 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.03735012688587919</v>
+        <v>0.02784838811867224</v>
       </c>
       <c r="L6">
-        <v>0.02671349476642149</v>
+        <v>0.01364809923130907</v>
       </c>
       <c r="M6">
-        <v>0.01649047664300325</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.1423898320927626</v>
+        <v>0.1680801966299978</v>
       </c>
       <c r="O6">
-        <v>0.1016273412899613</v>
+        <v>0.1136607959524671</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.0422082817396628</v>
+        <v>0.03433420069623366</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0.1905797689060255</v>
+        <v>0.2324155065783688</v>
       </c>
       <c r="T6">
-        <v>0.07113504943668936</v>
+        <v>0.0729524826168802</v>
       </c>
       <c r="U6">
-        <v>0.04513455513717423</v>
+        <v>0.03824088160250032</v>
       </c>
       <c r="V6">
-        <v>0.004884104148715387</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.03925000559743771</v>
+        <v>0.03038479496738984</v>
       </c>
       <c r="X6">
         <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.00668994929411269</v>
+        <v>0</v>
       </c>
       <c r="Z6">
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.01497376759156037</v>
+        <v>0</v>
       </c>
       <c r="AB6">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.01003262131810643</v>
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1218,19 +1218,19 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1834191978297823</v>
+        <v>0.1754855827747273</v>
       </c>
       <c r="E7">
-        <v>0.005350927448324924</v>
+        <v>0.007999140524736858</v>
       </c>
       <c r="F7">
-        <v>0.2026949693377504</v>
+        <v>0.193615878444907</v>
       </c>
       <c r="G7">
-        <v>0.007418471943878613</v>
+        <v>0.009943819781810711</v>
       </c>
       <c r="H7">
-        <v>0.0007597781308764032</v>
+        <v>0.003680823379460661</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1242,64 +1242,64 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.05523954672307359</v>
+        <v>0.05492309465307465</v>
       </c>
       <c r="M7">
-        <v>0.01545036483594091</v>
+        <v>0.01749841197357372</v>
       </c>
       <c r="N7">
-        <v>0.1095237124678652</v>
+        <v>0.1059813869115853</v>
       </c>
       <c r="O7">
-        <v>0.01028119390919818</v>
+        <v>0.01263642254644229</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.0007565787603149255</v>
       </c>
       <c r="Q7">
-        <v>0.0102941745099636</v>
+        <v>0.01264863176617475</v>
       </c>
       <c r="R7">
-        <v>0.04204234743017692</v>
+        <v>0.0425101479080069</v>
       </c>
       <c r="S7">
-        <v>0.1522979971803691</v>
+        <v>0.1462137806498886</v>
       </c>
       <c r="T7">
         <v>0</v>
       </c>
       <c r="U7">
-        <v>0.07987485097195816</v>
+        <v>0.07809442918422316</v>
       </c>
       <c r="V7">
         <v>0</v>
       </c>
       <c r="W7">
-        <v>0.04590705841515975</v>
+        <v>0.04614519581301892</v>
       </c>
       <c r="X7">
         <v>0</v>
       </c>
       <c r="Y7">
-        <v>0.01485567791872948</v>
+        <v>0.01693906473106392</v>
       </c>
       <c r="Z7">
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>0.01930083964357748</v>
+        <v>0.02112006969576509</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>0.002602119430103959</v>
       </c>
       <c r="AC7">
         <v>0</v>
       </c>
       <c r="AD7">
-        <v>0.04304128163412213</v>
+        <v>0.04344971976717194</v>
       </c>
       <c r="AE7">
-        <v>0.002247609669252612</v>
+        <v>0.00508023951629483</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>0.002675461787654306</v>
       </c>
       <c r="AI7">
         <v>0</v>
@@ -1325,16 +1325,16 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.05096833862243697</v>
+        <v>0.05019682855547856</v>
       </c>
       <c r="E8">
-        <v>0.02951063190583095</v>
+        <v>0.03127946984295359</v>
       </c>
       <c r="F8">
-        <v>0.1041310059783558</v>
+        <v>0.09706564178742817</v>
       </c>
       <c r="G8">
-        <v>0.1173778800401541</v>
+        <v>0.1087442368841141</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1346,70 +1346,70 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.003918289424461142</v>
       </c>
       <c r="L8">
-        <v>0.02510393457104114</v>
+        <v>0.02739447526637882</v>
       </c>
       <c r="M8">
-        <v>0.02435810911545129</v>
+        <v>0.0267369470474193</v>
       </c>
       <c r="N8">
-        <v>0.08876495363417168</v>
+        <v>0.08351875497284575</v>
       </c>
       <c r="O8">
-        <v>0.09420573774147643</v>
+        <v>0.08831541222958957</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.004723647968750695</v>
       </c>
       <c r="Q8">
-        <v>0.0317200053935681</v>
+        <v>0.03322727868149646</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>0.173794311435928</v>
+        <v>0.1584816055642663</v>
       </c>
       <c r="T8">
-        <v>0.1211196122522994</v>
+        <v>0.1120429906325091</v>
       </c>
       <c r="U8">
-        <v>0.02931880199175909</v>
+        <v>0.03111035040515822</v>
       </c>
       <c r="V8">
-        <v>0.02408622095906182</v>
+        <v>0.02649724735108007</v>
       </c>
       <c r="W8">
-        <v>0.02652110759692042</v>
+        <v>0.02864387115207826</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>0.004964360415445862</v>
       </c>
       <c r="Y8">
-        <v>0.0214699338704509</v>
+        <v>0.02419069884597362</v>
       </c>
       <c r="Z8">
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>0.001312047236889345</v>
+        <v>0.006419276327723628</v>
       </c>
       <c r="AB8">
-        <v>0.005371890420137137</v>
+        <v>0.009998480332532835</v>
       </c>
       <c r="AC8">
         <v>0</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>0.004064777810240564</v>
       </c>
       <c r="AE8">
-        <v>0.03086547723406758</v>
+        <v>0.0324739169203016</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>0.004233955672066807</v>
       </c>
       <c r="AG8">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>0.001757485909706742</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -1432,16 +1432,16 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1682534230143568</v>
+        <v>0.1577707752257084</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.1636212107730523</v>
+        <v>0.1535361282116429</v>
       </c>
       <c r="G9">
-        <v>0.03291457033366074</v>
+        <v>0.03404754353070328</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1450,70 +1450,70 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.008560273586818618</v>
+        <v>0.01178348380583284</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.08601080809851282</v>
+        <v>0.08258673236668838</v>
       </c>
       <c r="M9">
-        <v>0.01455938274941884</v>
+        <v>0.01726771215701557</v>
       </c>
       <c r="N9">
-        <v>0.1203262863911663</v>
+        <v>0.1139570431638661</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.001599917483977246</v>
       </c>
       <c r="P9">
-        <v>0.003821553837280476</v>
+        <v>0.007451470419454918</v>
       </c>
       <c r="Q9">
-        <v>0.0315148417251576</v>
+        <v>0.03276794832570668</v>
       </c>
       <c r="R9">
-        <v>0.01412977613135785</v>
+        <v>0.01687497704739062</v>
       </c>
       <c r="S9">
-        <v>0.1605959267698002</v>
+        <v>0.1507704928729082</v>
       </c>
       <c r="T9">
-        <v>0.02146126557262808</v>
+        <v>0.02357723252573295</v>
       </c>
       <c r="U9">
-        <v>0.03366755298473569</v>
+        <v>0.03473590053355936</v>
       </c>
       <c r="V9">
         <v>0</v>
       </c>
       <c r="W9">
-        <v>0.04451262650947193</v>
+        <v>0.04465018248492168</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>0.001895453750941787</v>
       </c>
       <c r="Y9">
-        <v>0.01266477815312074</v>
+        <v>0.01553571429538713</v>
       </c>
       <c r="Z9">
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>0.01950879624753683</v>
+        <v>0.02179233624575945</v>
       </c>
       <c r="AB9">
-        <v>0.01954379241523926</v>
+        <v>0.02182432882497321</v>
       </c>
       <c r="AC9">
         <v>0</v>
       </c>
       <c r="AD9">
-        <v>0.01872236086828458</v>
+        <v>0.02107339763564773</v>
       </c>
       <c r="AE9">
-        <v>0.02548102553524093</v>
+        <v>0.02725199171987227</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1522,10 +1522,10 @@
         <v>0</v>
       </c>
       <c r="AH9">
-        <v>0.0001297483031594925</v>
+        <v>0.004076518567686319</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>0.003172718804622875</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -1539,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2373280968972608</v>
+        <v>0.2231856471705974</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.08363491049292214</v>
+        <v>0.08136297508634832</v>
       </c>
       <c r="G10">
-        <v>0.0056671077804505</v>
+        <v>0.009417026304144262</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1557,46 +1557,46 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.02290616218652673</v>
+        <v>0.02532461998005013</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.09834858477148056</v>
+        <v>0.09494023671506249</v>
       </c>
       <c r="M10">
-        <v>0.06972276553201076</v>
+        <v>0.06852533654855969</v>
       </c>
       <c r="N10">
-        <v>0.07316606656555479</v>
+        <v>0.07170269375477273</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.0009789456643778211</v>
       </c>
       <c r="P10">
-        <v>0.01563577718416552</v>
+        <v>0.01861576415996538</v>
       </c>
       <c r="Q10">
-        <v>0.03500780435659339</v>
+        <v>0.03649159015822737</v>
       </c>
       <c r="R10">
-        <v>0.0741834997690415</v>
+        <v>0.07264154536531914</v>
       </c>
       <c r="S10">
-        <v>0.1652684798386555</v>
+        <v>0.1566915645133935</v>
       </c>
       <c r="T10">
         <v>0</v>
       </c>
       <c r="U10">
-        <v>0.01805845353477618</v>
+        <v>0.02085132477053791</v>
       </c>
       <c r="V10">
         <v>0</v>
       </c>
       <c r="W10">
-        <v>0.03832051181864474</v>
+        <v>0.03954844020534364</v>
       </c>
       <c r="X10">
         <v>0</v>
@@ -1608,19 +1608,19 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>0.01645896799069387</v>
+        <v>0.01937537571170912</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>0.001834570031605423</v>
       </c>
       <c r="AC10">
         <v>0</v>
       </c>
       <c r="AD10">
-        <v>0.009918475743724002</v>
+        <v>0.0133400392799999</v>
       </c>
       <c r="AE10">
-        <v>0.03629591478512055</v>
+        <v>0.03768021320123398</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1629,10 +1629,10 @@
         <v>0</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>0.003232109093972967</v>
       </c>
       <c r="AI10">
-        <v>7.842075237848231E-05</v>
+        <v>0.00425998228477855</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -1646,19 +1646,19 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.03390648053381124</v>
+        <v>0.03305570421317329</v>
       </c>
       <c r="E11">
-        <v>0.01207936360346949</v>
+        <v>0.009766382879793084</v>
       </c>
       <c r="F11">
-        <v>0.09500043114173404</v>
+        <v>0.09824235491809051</v>
       </c>
       <c r="G11">
-        <v>0.08371170641408807</v>
+        <v>0.08619739550062588</v>
       </c>
       <c r="H11">
-        <v>0.0007610141735656511</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1667,58 +1667,58 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.002926156515455484</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.04734140066783764</v>
+        <v>0.0473906332415093</v>
       </c>
       <c r="M11">
-        <v>0.01196001416241729</v>
+        <v>0.009639038187752698</v>
       </c>
       <c r="N11">
-        <v>0.1460852126850894</v>
+        <v>0.1527493196448381</v>
       </c>
       <c r="O11">
-        <v>0.06169171164889234</v>
+        <v>0.06270227539463009</v>
       </c>
       <c r="P11">
-        <v>0.004767062012458052</v>
+        <v>0.001964228248783543</v>
       </c>
       <c r="Q11">
-        <v>0.08040498659986081</v>
+        <v>0.08266915764132614</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.1824653638789206</v>
+        <v>0.1915665869007031</v>
       </c>
       <c r="T11">
-        <v>0.1193952389698518</v>
+        <v>0.1242713774494779</v>
       </c>
       <c r="U11">
-        <v>0.01862500561655011</v>
+        <v>0.01675051920262541</v>
       </c>
       <c r="V11">
-        <v>0.01832375117323598</v>
+        <v>0.01642908364355263</v>
       </c>
       <c r="W11">
-        <v>0.01688206495544868</v>
+        <v>0.01489081848031065</v>
       </c>
       <c r="X11">
-        <v>0.003150270583629148</v>
+        <v>0.0002391275295626414</v>
       </c>
       <c r="Y11">
-        <v>0.009241198734570638</v>
+        <v>0.006738088586971825</v>
       </c>
       <c r="Z11">
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>0.0005740275835137745</v>
+        <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.01118388340583841</v>
+        <v>0.008810914224135755</v>
       </c>
       <c r="AC11">
         <v>0</v>
@@ -1727,10 +1727,10 @@
         <v>0</v>
       </c>
       <c r="AE11">
-        <v>0.03134965602516938</v>
+        <v>0.03032759734661563</v>
       </c>
       <c r="AF11">
-        <v>0.008173998914591724</v>
+        <v>0.005599396765521757</v>
       </c>
       <c r="AG11">
         <v>0</v>
@@ -1873,100 +1873,100 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1186693222283593</v>
+        <v>0.1170773836663444</v>
       </c>
       <c r="E2">
-        <v>0.1186693222283593</v>
+        <v>0.1170773836663444</v>
       </c>
       <c r="F2">
-        <v>0.2782142863053088</v>
+        <v>0.2739993898975903</v>
       </c>
       <c r="G2">
-        <v>0.2841539038034665</v>
+        <v>0.2811904859439005</v>
       </c>
       <c r="H2">
-        <v>0.2841539038034665</v>
+        <v>0.2811904859439005</v>
       </c>
       <c r="I2">
-        <v>0.2841539038034665</v>
+        <v>0.2811904859439005</v>
       </c>
       <c r="J2">
-        <v>0.3331718901686558</v>
+        <v>0.3303733714910692</v>
       </c>
       <c r="K2">
-        <v>0.3331718901686558</v>
+        <v>0.3303733714910692</v>
       </c>
       <c r="L2">
-        <v>0.3862808387393622</v>
+        <v>0.383544031606033</v>
       </c>
       <c r="M2">
-        <v>0.3862808387393622</v>
+        <v>0.383544031606033</v>
       </c>
       <c r="N2">
-        <v>0.5951978500426751</v>
+        <v>0.5885927582513046</v>
       </c>
       <c r="O2">
-        <v>0.6411724502039836</v>
+        <v>0.6348090218904422</v>
       </c>
       <c r="P2">
-        <v>0.6485084558045414</v>
+        <v>0.6433612844989888</v>
       </c>
       <c r="Q2">
-        <v>0.6918701306191205</v>
+        <v>0.6870305294364668</v>
       </c>
       <c r="R2">
-        <v>0.6995760843652954</v>
+        <v>0.6959434088711736</v>
       </c>
       <c r="S2">
-        <v>0.8791402009752483</v>
+        <v>0.8723796181992505</v>
       </c>
       <c r="T2">
-        <v>0.8808434506224233</v>
+        <v>0.8754412016450311</v>
       </c>
       <c r="U2">
-        <v>0.9279695143462227</v>
+        <v>0.9227798851158776</v>
       </c>
       <c r="V2">
-        <v>0.9279695143462227</v>
+        <v>0.9227798851158776</v>
       </c>
       <c r="W2">
-        <v>0.9668048596326989</v>
+        <v>0.9620369695710892</v>
       </c>
       <c r="X2">
-        <v>0.9668048596326989</v>
+        <v>0.9620369695710892</v>
       </c>
       <c r="Y2">
-        <v>0.9668048596326989</v>
+        <v>0.9620369695710892</v>
       </c>
       <c r="Z2">
-        <v>0.9786129379019001</v>
+        <v>0.9749485043404239</v>
       </c>
       <c r="AA2">
-        <v>0.9848781356694709</v>
+        <v>0.9824569684417092</v>
       </c>
       <c r="AB2">
-        <v>0.9976191377072833</v>
+        <v>0.9962778955474341</v>
       </c>
       <c r="AC2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AD2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AE2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AF2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AG2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AH2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -1980,100 +1980,100 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.12552570646785</v>
+        <v>0.1181133407004124</v>
       </c>
       <c r="E3">
-        <v>0.1419474384303296</v>
+        <v>0.1389252612187284</v>
       </c>
       <c r="F3">
-        <v>0.2637352855571813</v>
+        <v>0.2537050934565124</v>
       </c>
       <c r="G3">
-        <v>0.2637352855571813</v>
+        <v>0.2537050934565124</v>
       </c>
       <c r="H3">
-        <v>0.2637352855571813</v>
+        <v>0.2537050934565124</v>
       </c>
       <c r="I3">
-        <v>0.2637352855571813</v>
+        <v>0.2537050934565124</v>
       </c>
       <c r="J3">
-        <v>0.3041945114646309</v>
+        <v>0.2959542009248693</v>
       </c>
       <c r="K3">
-        <v>0.3041945114646309</v>
+        <v>0.2993352707084233</v>
       </c>
       <c r="L3">
-        <v>0.4373967085736203</v>
+        <v>0.42429468135985</v>
       </c>
       <c r="M3">
-        <v>0.4596173395242591</v>
+        <v>0.4502781926437494</v>
       </c>
       <c r="N3">
-        <v>0.5756746592378563</v>
+        <v>0.5599474094504278</v>
       </c>
       <c r="O3">
-        <v>0.5756746592378563</v>
+        <v>0.5599474094504278</v>
       </c>
       <c r="P3">
-        <v>0.5756746592378563</v>
+        <v>0.5651198435905894</v>
       </c>
       <c r="Q3">
-        <v>0.5947444714934725</v>
+        <v>0.5882933826883068</v>
       </c>
       <c r="R3">
-        <v>0.6495516532287656</v>
+        <v>0.6433383253687938</v>
       </c>
       <c r="S3">
-        <v>0.8266325414033685</v>
+        <v>0.8074297564234323</v>
       </c>
       <c r="T3">
-        <v>0.8266325414033685</v>
+        <v>0.8074297564234323</v>
       </c>
       <c r="U3">
-        <v>0.9101684027561681</v>
+        <v>0.8880955927460866</v>
       </c>
       <c r="V3">
-        <v>0.9101684027561681</v>
+        <v>0.8880955927460866</v>
       </c>
       <c r="W3">
-        <v>0.9472744445500559</v>
+        <v>0.9273542539189648</v>
       </c>
       <c r="X3">
-        <v>0.9472744445500559</v>
+        <v>0.9273542539189648</v>
       </c>
       <c r="Y3">
-        <v>0.9606738432368555</v>
+        <v>0.945470788487131</v>
       </c>
       <c r="Z3">
-        <v>0.9606738432368555</v>
+        <v>0.945470788487131</v>
       </c>
       <c r="AA3">
-        <v>0.9606738432368555</v>
+        <v>0.9464281008884106</v>
       </c>
       <c r="AB3">
-        <v>0.9606738432368555</v>
+        <v>0.9464281008884106</v>
       </c>
       <c r="AC3">
-        <v>0.9606738432368555</v>
+        <v>0.9464281008884106</v>
       </c>
       <c r="AD3">
-        <v>0.9892472847803404</v>
+        <v>0.9780771939775021</v>
       </c>
       <c r="AE3">
-        <v>0.9988788329439349</v>
+        <v>0.9928334732607093</v>
       </c>
       <c r="AF3">
-        <v>0.9988788329439349</v>
+        <v>0.9928334732607093</v>
       </c>
       <c r="AG3">
-        <v>0.9988788329439349</v>
+        <v>0.9928334732607093</v>
       </c>
       <c r="AH3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -2087,85 +2087,85 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0883374007051044</v>
+        <v>0.09235440524709831</v>
       </c>
       <c r="E4">
-        <v>0.0883374007051044</v>
+        <v>0.09235440524709831</v>
       </c>
       <c r="F4">
-        <v>0.2491241796600253</v>
+        <v>0.2692441371754238</v>
       </c>
       <c r="G4">
-        <v>0.2784246642588143</v>
+        <v>0.2927131342953349</v>
       </c>
       <c r="H4">
-        <v>0.2784246642588143</v>
+        <v>0.2927131342953349</v>
       </c>
       <c r="I4">
-        <v>0.2784246642588143</v>
+        <v>0.2927131342953349</v>
       </c>
       <c r="J4">
-        <v>0.2945371547768767</v>
+        <v>0.300794126510081</v>
       </c>
       <c r="K4">
-        <v>0.3037239861109664</v>
+        <v>0.300794126510081</v>
       </c>
       <c r="L4">
-        <v>0.368476462548229</v>
+        <v>0.3656291889291536</v>
       </c>
       <c r="M4">
-        <v>0.368476462548229</v>
+        <v>0.3656291889291536</v>
       </c>
       <c r="N4">
-        <v>0.56157550809769</v>
+        <v>0.5802214944111351</v>
       </c>
       <c r="O4">
-        <v>0.6119933004997332</v>
+        <v>0.628330572052105</v>
       </c>
       <c r="P4">
-        <v>0.6119933004997332</v>
+        <v>0.628330572052105</v>
       </c>
       <c r="Q4">
-        <v>0.6522636341947747</v>
+        <v>0.6645993998868891</v>
       </c>
       <c r="R4">
-        <v>0.6522636341947747</v>
+        <v>0.6645993998868891</v>
       </c>
       <c r="S4">
-        <v>0.8428024961878361</v>
+        <v>0.8762044340004693</v>
       </c>
       <c r="T4">
-        <v>0.887030941892691</v>
+        <v>0.9170916629847667</v>
       </c>
       <c r="U4">
-        <v>0.9380858326223918</v>
+        <v>0.9659441191965074</v>
       </c>
       <c r="V4">
-        <v>0.9380858326223918</v>
+        <v>0.9659441191965074</v>
       </c>
       <c r="W4">
-        <v>0.975312430878719</v>
+        <v>0.9986614580349925</v>
       </c>
       <c r="X4">
-        <v>0.975312430878719</v>
+        <v>0.9986614580349925</v>
       </c>
       <c r="Y4">
-        <v>0.9836867270521684</v>
+        <v>0.9986614580349925</v>
       </c>
       <c r="Z4">
-        <v>0.9836867270521684</v>
+        <v>0.9986614580349925</v>
       </c>
       <c r="AA4">
-        <v>0.9873379944795397</v>
+        <v>0.9986614580349925</v>
       </c>
       <c r="AB4">
-        <v>0.9896659969812044</v>
+        <v>0.9986614580349925</v>
       </c>
       <c r="AC4">
-        <v>0.9896659969812044</v>
+        <v>0.9986614580349925</v>
       </c>
       <c r="AD4">
-        <v>0.9896659969812044</v>
+        <v>0.9986614580349925</v>
       </c>
       <c r="AE4">
         <v>1</v>
@@ -2194,85 +2194,85 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.09492978098295007</v>
+        <v>0.09694415111231926</v>
       </c>
       <c r="E5">
-        <v>0.09492978098295007</v>
+        <v>0.09694415111231926</v>
       </c>
       <c r="F5">
-        <v>0.2419259855752249</v>
+        <v>0.2490871820875147</v>
       </c>
       <c r="G5">
-        <v>0.2570851516275149</v>
+        <v>0.2614615032613576</v>
       </c>
       <c r="H5">
-        <v>0.2570851516275149</v>
+        <v>0.2614615032613576</v>
       </c>
       <c r="I5">
-        <v>0.2605722212583619</v>
+        <v>0.2614615032613576</v>
       </c>
       <c r="J5">
-        <v>0.2802014410328802</v>
+        <v>0.2785748086267264</v>
       </c>
       <c r="K5">
-        <v>0.2802014410328802</v>
+        <v>0.2785748086267264</v>
       </c>
       <c r="L5">
-        <v>0.381755324358713</v>
+        <v>0.3825415859168632</v>
       </c>
       <c r="M5">
-        <v>0.381755324358713</v>
+        <v>0.3825415859168632</v>
       </c>
       <c r="N5">
-        <v>0.5655345932891234</v>
+        <v>0.5736806494335671</v>
       </c>
       <c r="O5">
-        <v>0.5914677382611599</v>
+        <v>0.5974771411121217</v>
       </c>
       <c r="P5">
-        <v>0.5914677382611599</v>
+        <v>0.5974771411121217</v>
       </c>
       <c r="Q5">
-        <v>0.6444993319229051</v>
+        <v>0.6500023971267319</v>
       </c>
       <c r="R5">
-        <v>0.645454765287799</v>
+        <v>0.6500023971267319</v>
       </c>
       <c r="S5">
-        <v>0.8645566462133546</v>
+        <v>0.8785891760961603</v>
       </c>
       <c r="T5">
-        <v>0.8747831917383835</v>
+        <v>0.8857341170088116</v>
       </c>
       <c r="U5">
-        <v>0.9420317651017872</v>
+        <v>0.9533316845087119</v>
       </c>
       <c r="V5">
-        <v>0.9420317651017872</v>
+        <v>0.9533316845087119</v>
       </c>
       <c r="W5">
-        <v>0.9742057611192434</v>
+        <v>0.9837444936375115</v>
       </c>
       <c r="X5">
-        <v>0.9742057611192434</v>
+        <v>0.9837444936375115</v>
       </c>
       <c r="Y5">
-        <v>0.9834163859901328</v>
+        <v>0.9898123933737065</v>
       </c>
       <c r="Z5">
-        <v>0.9834163859901328</v>
+        <v>0.9898123933737065</v>
       </c>
       <c r="AA5">
-        <v>0.9834163859901328</v>
+        <v>0.9898123933737065</v>
       </c>
       <c r="AB5">
-        <v>0.9834163859901328</v>
+        <v>0.9898123933737065</v>
       </c>
       <c r="AC5">
-        <v>0.9834163859901328</v>
+        <v>0.9898123933737065</v>
       </c>
       <c r="AD5">
-        <v>0.9869784990121575</v>
+        <v>0.9898919515773812</v>
       </c>
       <c r="AE5">
         <v>1</v>
@@ -2301,100 +2301,100 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.07690499236370145</v>
+        <v>0.08065556527565573</v>
       </c>
       <c r="E6">
-        <v>0.07690499236370145</v>
+        <v>0.08065556527565573</v>
       </c>
       <c r="F6">
-        <v>0.216305501120178</v>
+        <v>0.2447449070489414</v>
       </c>
       <c r="G6">
-        <v>0.2505406251524877</v>
+        <v>0.2684346536061809</v>
       </c>
       <c r="H6">
-        <v>0.2505406251524877</v>
+        <v>0.2684346536061809</v>
       </c>
       <c r="I6">
-        <v>0.2505406251524877</v>
+        <v>0.2684346536061809</v>
       </c>
       <c r="J6">
-        <v>0.2505406251524877</v>
+        <v>0.2684346536061809</v>
       </c>
       <c r="K6">
-        <v>0.2878907520383669</v>
+        <v>0.2962830417248531</v>
       </c>
       <c r="L6">
-        <v>0.3146042468047884</v>
+        <v>0.3099311409561622</v>
       </c>
       <c r="M6">
-        <v>0.3310947234477916</v>
+        <v>0.3099311409561622</v>
       </c>
       <c r="N6">
-        <v>0.4734845555405542</v>
+        <v>0.47801133758616</v>
       </c>
       <c r="O6">
-        <v>0.5751118968305156</v>
+        <v>0.591672133538627</v>
       </c>
       <c r="P6">
-        <v>0.5751118968305156</v>
+        <v>0.591672133538627</v>
       </c>
       <c r="Q6">
-        <v>0.6173201785701784</v>
+        <v>0.6260063342348606</v>
       </c>
       <c r="R6">
-        <v>0.6173201785701784</v>
+        <v>0.6260063342348606</v>
       </c>
       <c r="S6">
-        <v>0.8078999474762039</v>
+        <v>0.8584218408132295</v>
       </c>
       <c r="T6">
-        <v>0.8790349969128932</v>
+        <v>0.9313743234301097</v>
       </c>
       <c r="U6">
-        <v>0.9241695520500675</v>
+        <v>0.96961520503261</v>
       </c>
       <c r="V6">
-        <v>0.9290536561987829</v>
+        <v>0.96961520503261</v>
       </c>
       <c r="W6">
-        <v>0.9683036617962206</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="X6">
-        <v>0.9683036617962206</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Y6">
-        <v>0.9749936110903333</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Z6">
-        <v>0.9749936110903333</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AA6">
-        <v>0.9899673786818937</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AB6">
-        <v>0.9899673786818937</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AC6">
-        <v>0.9899673786818937</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AD6">
-        <v>0.9899673786818937</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AE6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -2408,100 +2408,100 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1834191978297823</v>
+        <v>0.1754855827747273</v>
       </c>
       <c r="E7">
-        <v>0.1887701252781072</v>
+        <v>0.1834847232994642</v>
       </c>
       <c r="F7">
-        <v>0.3914650946158577</v>
+        <v>0.3771006017443712</v>
       </c>
       <c r="G7">
-        <v>0.3988835665597363</v>
+        <v>0.3870444215261819</v>
       </c>
       <c r="H7">
-        <v>0.3996433446906127</v>
+        <v>0.3907252449056426</v>
       </c>
       <c r="I7">
-        <v>0.3996433446906127</v>
+        <v>0.3907252449056426</v>
       </c>
       <c r="J7">
-        <v>0.3996433446906127</v>
+        <v>0.3907252449056426</v>
       </c>
       <c r="K7">
-        <v>0.3996433446906127</v>
+        <v>0.3907252449056426</v>
       </c>
       <c r="L7">
-        <v>0.4548828914136863</v>
+        <v>0.4456483395587172</v>
       </c>
       <c r="M7">
-        <v>0.4703332562496272</v>
+        <v>0.463146751532291</v>
       </c>
       <c r="N7">
-        <v>0.5798569687174924</v>
+        <v>0.5691281384438763</v>
       </c>
       <c r="O7">
-        <v>0.5901381626266906</v>
+        <v>0.5817645609903186</v>
       </c>
       <c r="P7">
-        <v>0.5901381626266906</v>
+        <v>0.5825211397506335</v>
       </c>
       <c r="Q7">
-        <v>0.6004323371366542</v>
+        <v>0.5951697715168082</v>
       </c>
       <c r="R7">
-        <v>0.6424746845668311</v>
+        <v>0.6376799194248151</v>
       </c>
       <c r="S7">
-        <v>0.7947726817472003</v>
+        <v>0.7838937000747037</v>
       </c>
       <c r="T7">
-        <v>0.7947726817472003</v>
+        <v>0.7838937000747037</v>
       </c>
       <c r="U7">
-        <v>0.8746475327191584</v>
+        <v>0.8619881292589269</v>
       </c>
       <c r="V7">
-        <v>0.8746475327191584</v>
+        <v>0.8619881292589269</v>
       </c>
       <c r="W7">
-        <v>0.9205545911343181</v>
+        <v>0.9081333250719458</v>
       </c>
       <c r="X7">
-        <v>0.9205545911343181</v>
+        <v>0.9081333250719458</v>
       </c>
       <c r="Y7">
-        <v>0.9354102690530476</v>
+        <v>0.9250723898030097</v>
       </c>
       <c r="Z7">
-        <v>0.9354102690530476</v>
+        <v>0.9250723898030097</v>
       </c>
       <c r="AA7">
-        <v>0.9547111086966251</v>
+        <v>0.9461924594987747</v>
       </c>
       <c r="AB7">
-        <v>0.9547111086966251</v>
+        <v>0.9487945789288786</v>
       </c>
       <c r="AC7">
-        <v>0.9547111086966251</v>
+        <v>0.9487945789288786</v>
       </c>
       <c r="AD7">
-        <v>0.9977523903307473</v>
+        <v>0.9922442986960506</v>
       </c>
       <c r="AE7">
-        <v>0.9999999999999999</v>
+        <v>0.9973245382123455</v>
       </c>
       <c r="AF7">
-        <v>0.9999999999999999</v>
+        <v>0.9973245382123455</v>
       </c>
       <c r="AG7">
-        <v>0.9999999999999999</v>
+        <v>0.9973245382123455</v>
       </c>
       <c r="AH7">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI7">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -2515,100 +2515,100 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.05096833862243697</v>
+        <v>0.05019682855547856</v>
       </c>
       <c r="E8">
-        <v>0.08047897052826791</v>
+        <v>0.08147629839843215</v>
       </c>
       <c r="F8">
-        <v>0.1846099765066238</v>
+        <v>0.1785419401858603</v>
       </c>
       <c r="G8">
-        <v>0.3019878565467778</v>
+        <v>0.2872861770699744</v>
       </c>
       <c r="H8">
-        <v>0.3019878565467778</v>
+        <v>0.2872861770699744</v>
       </c>
       <c r="I8">
-        <v>0.3019878565467778</v>
+        <v>0.2872861770699744</v>
       </c>
       <c r="J8">
-        <v>0.3019878565467778</v>
+        <v>0.2872861770699744</v>
       </c>
       <c r="K8">
-        <v>0.3019878565467778</v>
+        <v>0.2912044664944356</v>
       </c>
       <c r="L8">
-        <v>0.327091791117819</v>
+        <v>0.3185989417608144</v>
       </c>
       <c r="M8">
-        <v>0.3514499002332703</v>
+        <v>0.3453358888082337</v>
       </c>
       <c r="N8">
-        <v>0.440214853867442</v>
+        <v>0.4288546437810795</v>
       </c>
       <c r="O8">
-        <v>0.5344205916089184</v>
+        <v>0.5171700560106691</v>
       </c>
       <c r="P8">
-        <v>0.5344205916089184</v>
+        <v>0.5218937039794198</v>
       </c>
       <c r="Q8">
-        <v>0.5661405970024865</v>
+        <v>0.5551209826609163</v>
       </c>
       <c r="R8">
-        <v>0.5661405970024865</v>
+        <v>0.5551209826609163</v>
       </c>
       <c r="S8">
-        <v>0.7399349084384146</v>
+        <v>0.7136025882251825</v>
       </c>
       <c r="T8">
-        <v>0.8610545206907141</v>
+        <v>0.8256455788576915</v>
       </c>
       <c r="U8">
-        <v>0.8903733226824732</v>
+        <v>0.8567559292628497</v>
       </c>
       <c r="V8">
-        <v>0.9144595436415349</v>
+        <v>0.8832531766139298</v>
       </c>
       <c r="W8">
-        <v>0.9409806512384553</v>
+        <v>0.911897047766008</v>
       </c>
       <c r="X8">
-        <v>0.9409806512384553</v>
+        <v>0.9168614081814539</v>
       </c>
       <c r="Y8">
-        <v>0.9624505851089062</v>
+        <v>0.9410521070274275</v>
       </c>
       <c r="Z8">
-        <v>0.9624505851089062</v>
+        <v>0.9410521070274275</v>
       </c>
       <c r="AA8">
-        <v>0.9637626323457956</v>
+        <v>0.9474713833551511</v>
       </c>
       <c r="AB8">
-        <v>0.9691345227659327</v>
+        <v>0.9574698636876839</v>
       </c>
       <c r="AC8">
-        <v>0.9691345227659327</v>
+        <v>0.9574698636876839</v>
       </c>
       <c r="AD8">
-        <v>0.9691345227659327</v>
+        <v>0.9615346414979246</v>
       </c>
       <c r="AE8">
-        <v>1</v>
+        <v>0.9940085584182261</v>
       </c>
       <c r="AF8">
-        <v>1</v>
+        <v>0.998242514090293</v>
       </c>
       <c r="AG8">
-        <v>1</v>
+        <v>0.998242514090293</v>
       </c>
       <c r="AH8">
-        <v>1</v>
+        <v>0.998242514090293</v>
       </c>
       <c r="AI8">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -2622,97 +2622,97 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1682534230143568</v>
+        <v>0.1577707752257084</v>
       </c>
       <c r="E9">
-        <v>0.1682534230143568</v>
+        <v>0.1577707752257084</v>
       </c>
       <c r="F9">
-        <v>0.331874633787409</v>
+        <v>0.3113069034373513</v>
       </c>
       <c r="G9">
-        <v>0.3647892041210697</v>
+        <v>0.3453544469680546</v>
       </c>
       <c r="H9">
-        <v>0.3647892041210697</v>
+        <v>0.3453544469680546</v>
       </c>
       <c r="I9">
-        <v>0.3647892041210697</v>
+        <v>0.3453544469680546</v>
       </c>
       <c r="J9">
-        <v>0.3733494777078883</v>
+        <v>0.3571379307738874</v>
       </c>
       <c r="K9">
-        <v>0.3733494777078883</v>
+        <v>0.3571379307738874</v>
       </c>
       <c r="L9">
-        <v>0.4593602858064011</v>
+        <v>0.4397246631405758</v>
       </c>
       <c r="M9">
-        <v>0.47391966855582</v>
+        <v>0.4569923752975914</v>
       </c>
       <c r="N9">
-        <v>0.5942459549469863</v>
+        <v>0.5709494184614575</v>
       </c>
       <c r="O9">
-        <v>0.5942459549469863</v>
+        <v>0.5725493359454348</v>
       </c>
       <c r="P9">
-        <v>0.5980675087842667</v>
+        <v>0.5800008063648897</v>
       </c>
       <c r="Q9">
-        <v>0.6295823505094243</v>
+        <v>0.6127687546905964</v>
       </c>
       <c r="R9">
-        <v>0.6437121266407821</v>
+        <v>0.629643731737987</v>
       </c>
       <c r="S9">
-        <v>0.8043080534105824</v>
+        <v>0.7804142246108953</v>
       </c>
       <c r="T9">
-        <v>0.8257693189832105</v>
+        <v>0.8039914571366282</v>
       </c>
       <c r="U9">
-        <v>0.8594368719679462</v>
+        <v>0.8387273576701876</v>
       </c>
       <c r="V9">
-        <v>0.8594368719679462</v>
+        <v>0.8387273576701876</v>
       </c>
       <c r="W9">
-        <v>0.9039494984774181</v>
+        <v>0.8833775401551093</v>
       </c>
       <c r="X9">
-        <v>0.9039494984774181</v>
+        <v>0.8852729939060511</v>
       </c>
       <c r="Y9">
-        <v>0.9166142766305388</v>
+        <v>0.9008087082014382</v>
       </c>
       <c r="Z9">
-        <v>0.9166142766305388</v>
+        <v>0.9008087082014382</v>
       </c>
       <c r="AA9">
-        <v>0.9361230728780757</v>
+        <v>0.9226010444471977</v>
       </c>
       <c r="AB9">
-        <v>0.955666865293315</v>
+        <v>0.9444253732721709</v>
       </c>
       <c r="AC9">
-        <v>0.955666865293315</v>
+        <v>0.9444253732721709</v>
       </c>
       <c r="AD9">
-        <v>0.9743892261615996</v>
+        <v>0.9654987709078187</v>
       </c>
       <c r="AE9">
-        <v>0.9998702516968405</v>
+        <v>0.9927507626276909</v>
       </c>
       <c r="AF9">
-        <v>0.9998702516968405</v>
+        <v>0.9927507626276909</v>
       </c>
       <c r="AG9">
-        <v>0.9998702516968405</v>
+        <v>0.9927507626276909</v>
       </c>
       <c r="AH9">
-        <v>1</v>
+        <v>0.9968272811953772</v>
       </c>
       <c r="AI9">
         <v>1</v>
@@ -2729,100 +2729,100 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2373280968972608</v>
+        <v>0.2231856471705974</v>
       </c>
       <c r="E10">
-        <v>0.2373280968972608</v>
+        <v>0.2231856471705974</v>
       </c>
       <c r="F10">
-        <v>0.3209630073901829</v>
+        <v>0.3045486222569457</v>
       </c>
       <c r="G10">
-        <v>0.3266301151706334</v>
+        <v>0.31396564856109</v>
       </c>
       <c r="H10">
-        <v>0.3266301151706334</v>
+        <v>0.31396564856109</v>
       </c>
       <c r="I10">
-        <v>0.3266301151706334</v>
+        <v>0.31396564856109</v>
       </c>
       <c r="J10">
-        <v>0.3495362773571601</v>
+        <v>0.3392902685411401</v>
       </c>
       <c r="K10">
-        <v>0.3495362773571601</v>
+        <v>0.3392902685411401</v>
       </c>
       <c r="L10">
-        <v>0.4478848621286407</v>
+        <v>0.4342305052562027</v>
       </c>
       <c r="M10">
-        <v>0.5176076276606515</v>
+        <v>0.5027558418047624</v>
       </c>
       <c r="N10">
-        <v>0.5907736942262063</v>
+        <v>0.5744585355595351</v>
       </c>
       <c r="O10">
-        <v>0.5907736942262063</v>
+        <v>0.5754374812239129</v>
       </c>
       <c r="P10">
-        <v>0.6064094714103718</v>
+        <v>0.5940532453838783</v>
       </c>
       <c r="Q10">
-        <v>0.6414172757669652</v>
+        <v>0.6305448355421056</v>
       </c>
       <c r="R10">
-        <v>0.7156007755360067</v>
+        <v>0.7031863809074248</v>
       </c>
       <c r="S10">
-        <v>0.8808692553746621</v>
+        <v>0.8598779454208183</v>
       </c>
       <c r="T10">
-        <v>0.8808692553746621</v>
+        <v>0.8598779454208183</v>
       </c>
       <c r="U10">
-        <v>0.8989277089094383</v>
+        <v>0.8807292701913562</v>
       </c>
       <c r="V10">
-        <v>0.8989277089094383</v>
+        <v>0.8807292701913562</v>
       </c>
       <c r="W10">
-        <v>0.937248220728083</v>
+        <v>0.9202777103966998</v>
       </c>
       <c r="X10">
-        <v>0.937248220728083</v>
+        <v>0.9202777103966998</v>
       </c>
       <c r="Y10">
-        <v>0.937248220728083</v>
+        <v>0.9202777103966998</v>
       </c>
       <c r="Z10">
-        <v>0.937248220728083</v>
+        <v>0.9202777103966998</v>
       </c>
       <c r="AA10">
-        <v>0.9537071887187769</v>
+        <v>0.9396530861084089</v>
       </c>
       <c r="AB10">
-        <v>0.9537071887187769</v>
+        <v>0.9414876561400144</v>
       </c>
       <c r="AC10">
-        <v>0.9537071887187769</v>
+        <v>0.9414876561400144</v>
       </c>
       <c r="AD10">
-        <v>0.9636256644625009</v>
+        <v>0.9548276954200143</v>
       </c>
       <c r="AE10">
-        <v>0.9999215792476214</v>
+        <v>0.9925079086212483</v>
       </c>
       <c r="AF10">
-        <v>0.9999215792476214</v>
+        <v>0.9925079086212483</v>
       </c>
       <c r="AG10">
-        <v>0.9999215792476214</v>
+        <v>0.9925079086212483</v>
       </c>
       <c r="AH10">
-        <v>0.9999215792476214</v>
+        <v>0.9957400177152212</v>
       </c>
       <c r="AI10">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -2836,100 +2836,100 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.03390648053381124</v>
+        <v>0.03305570421317329</v>
       </c>
       <c r="E11">
-        <v>0.04598584413728073</v>
+        <v>0.04282208709296637</v>
       </c>
       <c r="F11">
-        <v>0.1409862752790147</v>
+        <v>0.1410644420110569</v>
       </c>
       <c r="G11">
-        <v>0.2246979816931028</v>
+        <v>0.2272618375116828</v>
       </c>
       <c r="H11">
-        <v>0.2254589958666685</v>
+        <v>0.2272618375116828</v>
       </c>
       <c r="I11">
-        <v>0.2254589958666685</v>
+        <v>0.2272618375116828</v>
       </c>
       <c r="J11">
-        <v>0.2254589958666685</v>
+        <v>0.2272618375116828</v>
       </c>
       <c r="K11">
-        <v>0.228385152382124</v>
+        <v>0.2272618375116828</v>
       </c>
       <c r="L11">
-        <v>0.2757265530499616</v>
+        <v>0.2746524707531921</v>
       </c>
       <c r="M11">
-        <v>0.2876865672123788</v>
+        <v>0.2842915089409448</v>
       </c>
       <c r="N11">
-        <v>0.4337717798974683</v>
+        <v>0.437040828585783</v>
       </c>
       <c r="O11">
-        <v>0.4954634915463606</v>
+        <v>0.4997431039804131</v>
       </c>
       <c r="P11">
-        <v>0.5002305535588186</v>
+        <v>0.5017073322291966</v>
       </c>
       <c r="Q11">
-        <v>0.5806355401586795</v>
+        <v>0.5843764898705227</v>
       </c>
       <c r="R11">
-        <v>0.5806355401586795</v>
+        <v>0.5843764898705227</v>
       </c>
       <c r="S11">
-        <v>0.7631009040376</v>
+        <v>0.7759430767712258</v>
       </c>
       <c r="T11">
-        <v>0.8824961430074518</v>
+        <v>0.9002144542207037</v>
       </c>
       <c r="U11">
-        <v>0.9011211486240019</v>
+        <v>0.9169649734233291</v>
       </c>
       <c r="V11">
-        <v>0.9194448997972379</v>
+        <v>0.9333940570668817</v>
       </c>
       <c r="W11">
-        <v>0.9363269647526865</v>
+        <v>0.9482848755471924</v>
       </c>
       <c r="X11">
-        <v>0.9394772353363157</v>
+        <v>0.9485240030767551</v>
       </c>
       <c r="Y11">
-        <v>0.9487184340708863</v>
+        <v>0.9552620916637269</v>
       </c>
       <c r="Z11">
-        <v>0.9487184340708863</v>
+        <v>0.9552620916637269</v>
       </c>
       <c r="AA11">
-        <v>0.9492924616544001</v>
+        <v>0.9552620916637269</v>
       </c>
       <c r="AB11">
-        <v>0.9604763450602385</v>
+        <v>0.9640730058878626</v>
       </c>
       <c r="AC11">
-        <v>0.9604763450602385</v>
+        <v>0.9640730058878626</v>
       </c>
       <c r="AD11">
-        <v>0.9604763450602385</v>
+        <v>0.9640730058878626</v>
       </c>
       <c r="AE11">
-        <v>0.9918260010854079</v>
+        <v>0.9944006032344782</v>
       </c>
       <c r="AF11">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="AG11">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="AH11">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="AI11">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5951978500426751</v>
+        <v>0.5885927582513046</v>
       </c>
       <c r="G2">
         <v>12</v>
@@ -3044,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5756746592378563</v>
+        <v>0.5599474094504278</v>
       </c>
       <c r="G3">
         <v>12</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.56157550809769</v>
+        <v>0.5802214944111351</v>
       </c>
       <c r="G4">
         <v>12</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5655345932891234</v>
+        <v>0.5736806494335671</v>
       </c>
       <c r="G5">
         <v>12</v>
@@ -3167,7 +3167,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5751118968305156</v>
+        <v>0.591672133538627</v>
       </c>
       <c r="G6">
         <v>13</v>
@@ -3208,7 +3208,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5798569687174924</v>
+        <v>0.5691281384438763</v>
       </c>
       <c r="G7">
         <v>12</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5344205916089184</v>
+        <v>0.5171700560106691</v>
       </c>
       <c r="G8">
         <v>13</v>
@@ -3290,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5942459549469863</v>
+        <v>0.5709494184614575</v>
       </c>
       <c r="G9">
         <v>12</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5176076276606515</v>
+        <v>0.5027558418047624</v>
       </c>
       <c r="G10">
         <v>11</v>
@@ -3369,10 +3369,10 @@
         <v>15</v>
       </c>
       <c r="E11">
-        <v>0.03390648053381124</v>
+        <v>0.03305570421317329</v>
       </c>
       <c r="F11">
-        <v>0.5002305535588186</v>
+        <v>0.5017073322291966</v>
       </c>
       <c r="G11">
         <v>12</v>
@@ -3467,7 +3467,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8791402009752483</v>
+        <v>0.8723796181992505</v>
       </c>
       <c r="G2">
         <v>17</v>
@@ -3508,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8266325414033685</v>
+        <v>0.8074297564234323</v>
       </c>
       <c r="G3">
         <v>17</v>
@@ -3549,7 +3549,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8428024961878361</v>
+        <v>0.8762044340004693</v>
       </c>
       <c r="G4">
         <v>17</v>
@@ -3590,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8645566462133546</v>
+        <v>0.8785891760961603</v>
       </c>
       <c r="G5">
         <v>17</v>
@@ -3631,7 +3631,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8078999474762039</v>
+        <v>0.8584218408132295</v>
       </c>
       <c r="G6">
         <v>17</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7947726817472003</v>
+        <v>0.7838937000747037</v>
       </c>
       <c r="G7">
         <v>17</v>
@@ -3713,7 +3713,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7399349084384146</v>
+        <v>0.7136025882251825</v>
       </c>
       <c r="G8">
         <v>17</v>
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8043080534105824</v>
+        <v>0.7804142246108953</v>
       </c>
       <c r="G9">
         <v>17</v>
@@ -3795,7 +3795,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7156007755360067</v>
+        <v>0.7031863809074248</v>
       </c>
       <c r="G10">
         <v>16</v>
@@ -3833,10 +3833,10 @@
         <v>18</v>
       </c>
       <c r="E11">
-        <v>0.03390648053381124</v>
+        <v>0.03305570421317329</v>
       </c>
       <c r="F11">
-        <v>0.7631009040376</v>
+        <v>0.7759430767712258</v>
       </c>
       <c r="G11">
         <v>15</v>
@@ -3931,7 +3931,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8791402009752483</v>
+        <v>0.8723796181992505</v>
       </c>
       <c r="G2">
         <v>17</v>
@@ -3972,7 +3972,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8266325414033685</v>
+        <v>0.8074297564234323</v>
       </c>
       <c r="G3">
         <v>17</v>
@@ -4013,7 +4013,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8428024961878361</v>
+        <v>0.8762044340004693</v>
       </c>
       <c r="G4">
         <v>17</v>
@@ -4054,7 +4054,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8645566462133546</v>
+        <v>0.8785891760961603</v>
       </c>
       <c r="G5">
         <v>17</v>
@@ -4095,7 +4095,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8078999474762039</v>
+        <v>0.8584218408132295</v>
       </c>
       <c r="G6">
         <v>17</v>
@@ -4136,7 +4136,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8746475327191584</v>
+        <v>0.8619881292589269</v>
       </c>
       <c r="G7">
         <v>19</v>
@@ -4177,7 +4177,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8610545206907141</v>
+        <v>0.8256455788576915</v>
       </c>
       <c r="G8">
         <v>18</v>
@@ -4212,16 +4212,16 @@
         <v>1</v>
       </c>
       <c r="D9">
+        <v>19</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0.8039914571366282</v>
+      </c>
+      <c r="G9">
         <v>18</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.8043080534105824</v>
-      </c>
-      <c r="G9">
-        <v>17</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -4259,7 +4259,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.8808692553746621</v>
+        <v>0.8598779454208183</v>
       </c>
       <c r="G10">
         <v>17</v>
@@ -4297,10 +4297,10 @@
         <v>19</v>
       </c>
       <c r="E11">
-        <v>0.03390648053381124</v>
+        <v>0.03305570421317329</v>
       </c>
       <c r="F11">
-        <v>0.8824961430074518</v>
+        <v>0.9002144542207037</v>
       </c>
       <c r="G11">
         <v>16</v>
@@ -4395,7 +4395,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9279695143462227</v>
+        <v>0.9227798851158776</v>
       </c>
       <c r="G2">
         <v>19</v>
@@ -4430,16 +4430,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9101684027561681</v>
+        <v>0.9273542539189648</v>
       </c>
       <c r="G3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -4471,16 +4471,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9380858326223918</v>
+        <v>0.9170916629847667</v>
       </c>
       <c r="G4">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -4518,7 +4518,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9420317651017872</v>
+        <v>0.9533316845087119</v>
       </c>
       <c r="G5">
         <v>19</v>
@@ -4553,16 +4553,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9241695520500675</v>
+        <v>0.9313743234301097</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -4600,7 +4600,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9205545911343181</v>
+        <v>0.9081333250719458</v>
       </c>
       <c r="G7">
         <v>21</v>
@@ -4635,16 +4635,16 @@
         <v>1</v>
       </c>
       <c r="D8">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0.911897047766008</v>
+      </c>
+      <c r="G8">
         <v>21</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.9144595436415349</v>
-      </c>
-      <c r="G8">
-        <v>20</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -4676,16 +4676,16 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9039494984774181</v>
+        <v>0.9008087082014382</v>
       </c>
       <c r="G9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -4723,7 +4723,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.937248220728083</v>
+        <v>0.9202777103966998</v>
       </c>
       <c r="G10">
         <v>21</v>
@@ -4758,16 +4758,16 @@
         <v>3</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11">
-        <v>0.03390648053381124</v>
+        <v>0.03305570421317329</v>
       </c>
       <c r="F11">
-        <v>0.9011211486240019</v>
+        <v>0.9002144542207037</v>
       </c>
       <c r="G11">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H11">
         <v>1</v>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/1_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/1_11R22.xlsx
@@ -156,40 +156,43 @@
     <t>signal segment 10</t>
   </si>
   <si>
+    <t>First_Noticeable_Increase_Cumulative_Value</t>
+  </si>
+  <si>
+    <t>First_Noticeable_Increase_Index</t>
+  </si>
+  <si>
     <t>Intensity_Threshold</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Index</t>
+    <t>Point_Exceeds_Cumulative_Value</t>
   </si>
   <si>
     <t>Point_Exceeds_Index</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Cumulative_Value</t>
-  </si>
-  <si>
-    <t>Point_Exceeds_Cumulative_Value</t>
+    <t>Pressure</t>
   </si>
   <si>
     <t>Pulse_Width</t>
   </si>
   <si>
+    <t>Rim</t>
+  </si>
+  <si>
+    <t>TireSize</t>
+  </si>
+  <si>
     <t>Tire_Number</t>
   </si>
   <si>
-    <t>Pressure</t>
-  </si>
-  <si>
-    <t>TireSize</t>
-  </si>
-  <si>
     <t>Tire_Type</t>
   </si>
   <si>
     <t>Wear</t>
   </si>
   <si>
-    <t>Rim</t>
+    <t>Ir</t>
   </si>
   <si>
     <t>11R22.5</t>
@@ -199,9 +202,6 @@
   </si>
   <si>
     <t>0%</t>
-  </si>
-  <si>
-    <t>Ir</t>
   </si>
 </sst>
 </file>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1170773836663444</v>
+        <v>0.1353688308727826</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.1569220062312459</v>
+        <v>0.1949683137532745</v>
       </c>
       <c r="G2">
-        <v>0.007191096046310168</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -701,46 +701,46 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.04918288554716871</v>
+        <v>0.03381241703695725</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.05317066011496376</v>
+        <v>0.03977731987164796</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.2050487266452717</v>
+        <v>0.2669561370721636</v>
       </c>
       <c r="O2">
-        <v>0.0462162636391376</v>
+        <v>0.02937495169687042</v>
       </c>
       <c r="P2">
-        <v>0.008552262608546605</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.04366924493747806</v>
+        <v>0.02556512774236847</v>
       </c>
       <c r="R2">
-        <v>0.008912879434706776</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.176436209328077</v>
+        <v>0.2241576080301018</v>
       </c>
       <c r="T2">
-        <v>0.003061583445780633</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.04733868347084644</v>
+        <v>0.03105386436408646</v>
       </c>
       <c r="V2">
         <v>0</v>
       </c>
       <c r="W2">
-        <v>0.03925708445521163</v>
+        <v>0.01896542955974695</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -749,16 +749,16 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.01291153476933473</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.007508464101285303</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.01382092710572492</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.00372210445256568</v>
+        <v>0</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -790,13 +790,13 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1181133407004124</v>
+        <v>0.1507546872352683</v>
       </c>
       <c r="E3">
-        <v>0.02081192051831602</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.114779832237784</v>
+        <v>0.145127221645521</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -808,58 +808,58 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0422491074683569</v>
+        <v>0.02268440729083588</v>
       </c>
       <c r="K3">
-        <v>0.003381069783553975</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1249594106514268</v>
+        <v>0.1623118869562971</v>
       </c>
       <c r="M3">
-        <v>0.02598351128389929</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.1096692168066784</v>
+        <v>0.1364997311791247</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.005172434140161634</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.02317353909771734</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.05504494268048694</v>
+        <v>0.04428570908911041</v>
       </c>
       <c r="S3">
-        <v>0.1640914310546386</v>
+        <v>0.2283726456869734</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.08066583632265431</v>
+        <v>0.08753764588971123</v>
       </c>
       <c r="V3">
         <v>0</v>
       </c>
       <c r="W3">
-        <v>0.03925866117287811</v>
+        <v>0.01763608243596958</v>
       </c>
       <c r="X3">
         <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.01811653456816617</v>
+        <v>0</v>
       </c>
       <c r="Z3">
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.0009573124012796279</v>
+        <v>0</v>
       </c>
       <c r="AB3">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.03164909308909161</v>
+        <v>0.00478998259118835</v>
       </c>
       <c r="AE3">
-        <v>0.01475627928320706</v>
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.00716652673929094</v>
+        <v>0</v>
       </c>
       <c r="AI3">
         <v>0</v>
@@ -897,16 +897,16 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.09235440524709831</v>
+        <v>0.09388291779949773</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.1768897319283255</v>
+        <v>0.2031067344265188</v>
       </c>
       <c r="G4">
-        <v>0.02346899711991109</v>
+        <v>0.004879568774382425</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -915,46 +915,46 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.008080992214746157</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.06483506241907262</v>
+        <v>0.05832656789528782</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.2145923054819815</v>
+        <v>0.2518203213003221</v>
       </c>
       <c r="O4">
-        <v>0.04810907764096987</v>
+        <v>0.03671576959319127</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.03626882783478418</v>
+        <v>0.02141758214398919</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2116050341135803</v>
+        <v>0.2479606191738044</v>
       </c>
       <c r="T4">
-        <v>0.04088722898429742</v>
+        <v>0.02738478449675987</v>
       </c>
       <c r="U4">
-        <v>0.04885245621174065</v>
+        <v>0.03767625141642359</v>
       </c>
       <c r="V4">
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0.03271733883848511</v>
+        <v>0.01682888297982313</v>
       </c>
       <c r="X4">
         <v>0</v>
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.001338541965007463</v>
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1004,16 +1004,16 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.09694415111231926</v>
+        <v>0.09989383218657322</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.1521430309751955</v>
+        <v>0.174579397906305</v>
       </c>
       <c r="G5">
-        <v>0.01237432117384293</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1022,52 +1022,52 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.01711330536536878</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1039667772901367</v>
+        <v>0.109395633857756</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.191139063516704</v>
+        <v>0.2273420763958441</v>
       </c>
       <c r="O5">
-        <v>0.02379649167855454</v>
+        <v>0.0009230860508502449</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.05252525601461023</v>
+        <v>0.03979387513565202</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.2285867789694284</v>
+        <v>0.2780098403150762</v>
       </c>
       <c r="T5">
-        <v>0.007144940912651287</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.0675975674999003</v>
+        <v>0.06018711704163449</v>
       </c>
       <c r="V5">
         <v>0</v>
       </c>
       <c r="W5">
-        <v>0.03041280912879961</v>
+        <v>0.00987514111030843</v>
       </c>
       <c r="X5">
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.006067899736195026</v>
+        <v>0</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -1082,10 +1082,10 @@
         <v>0</v>
       </c>
       <c r="AD5">
-        <v>7.955820367461382E-05</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.010108048422619</v>
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.08065556527565573</v>
+        <v>0.08021140741097506</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.1640893417732857</v>
+        <v>0.1774842346453487</v>
       </c>
       <c r="G6">
-        <v>0.02368974655723944</v>
+        <v>0.0137967432896817</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1132,43 +1132,43 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.02784838811867224</v>
+        <v>0.01864517325552928</v>
       </c>
       <c r="L6">
-        <v>0.01364809923130907</v>
+        <v>0.002089501133245453</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.1680801966299978</v>
+        <v>0.1821370473465147</v>
       </c>
       <c r="O6">
-        <v>0.1136607959524671</v>
+        <v>0.1186911722763149</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.03433420069623366</v>
+        <v>0.02620677903217276</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0.2324155065783688</v>
+        <v>0.257143570512292</v>
       </c>
       <c r="T6">
-        <v>0.0729524826168802</v>
+        <v>0.0712306245662664</v>
       </c>
       <c r="U6">
-        <v>0.03824088160250032</v>
+        <v>0.03076145596047766</v>
       </c>
       <c r="V6">
         <v>0</v>
       </c>
       <c r="W6">
-        <v>0.03038479496738984</v>
+        <v>0.02160229057118139</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -1218,19 +1218,19 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1754855827747273</v>
+        <v>0.2314190596574855</v>
       </c>
       <c r="E7">
-        <v>0.007999140524736858</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.193615878444907</v>
+        <v>0.2597485768813709</v>
       </c>
       <c r="G7">
-        <v>0.009943819781810711</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>0.003680823379460661</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1242,64 +1242,64 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.05492309465307465</v>
+        <v>0.04303398608063615</v>
       </c>
       <c r="M7">
-        <v>0.01749841197357372</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0.1059813869115853</v>
+        <v>0.1228151874616346</v>
       </c>
       <c r="O7">
-        <v>0.01263642254644229</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0.0007565787603149255</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.01264863176617475</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>0.0425101479080069</v>
+        <v>0.02363811990113643</v>
       </c>
       <c r="S7">
-        <v>0.1462137806498886</v>
+        <v>0.1856803669436251</v>
       </c>
       <c r="T7">
         <v>0</v>
       </c>
       <c r="U7">
-        <v>0.07809442918422316</v>
+        <v>0.07924038517319298</v>
       </c>
       <c r="V7">
         <v>0</v>
       </c>
       <c r="W7">
-        <v>0.04614519581301892</v>
+        <v>0.02931806876176446</v>
       </c>
       <c r="X7">
         <v>0</v>
       </c>
       <c r="Y7">
-        <v>0.01693906473106392</v>
+        <v>0</v>
       </c>
       <c r="Z7">
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>0.02112006969576509</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.002602119430103959</v>
+        <v>0</v>
       </c>
       <c r="AC7">
         <v>0</v>
       </c>
       <c r="AD7">
-        <v>0.04344971976717194</v>
+        <v>0.02510624913915399</v>
       </c>
       <c r="AE7">
-        <v>0.00508023951629483</v>
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="AH7">
-        <v>0.002675461787654306</v>
+        <v>0</v>
       </c>
       <c r="AI7">
         <v>0</v>
@@ -1325,16 +1325,16 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.05019682855547856</v>
+        <v>0.04192691805059623</v>
       </c>
       <c r="E8">
-        <v>0.03127946984295359</v>
+        <v>0.004766629006880238</v>
       </c>
       <c r="F8">
-        <v>0.09706564178742817</v>
+        <v>0.1339936105155467</v>
       </c>
       <c r="G8">
-        <v>0.1087442368841141</v>
+        <v>0.1569344436420043</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1346,70 +1346,70 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.003918289424461142</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.02739447526637882</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.0267369470474193</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0.08351875497284575</v>
+        <v>0.1073828009769461</v>
       </c>
       <c r="O8">
-        <v>0.08831541222958957</v>
+        <v>0.1168051084360855</v>
       </c>
       <c r="P8">
-        <v>0.004723647968750695</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.03322727868149646</v>
+        <v>0.008592804771800066</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>0.1584816055642663</v>
+        <v>0.2546359792799903</v>
       </c>
       <c r="T8">
-        <v>0.1120429906325091</v>
+        <v>0.1634143462878867</v>
       </c>
       <c r="U8">
-        <v>0.03111035040515822</v>
+        <v>0.004434419458661139</v>
       </c>
       <c r="V8">
-        <v>0.02649724735108007</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>0.02864387115207826</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>0.004964360415445862</v>
+        <v>0</v>
       </c>
       <c r="Y8">
-        <v>0.02419069884597362</v>
+        <v>0</v>
       </c>
       <c r="Z8">
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>0.006419276327723628</v>
+        <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.009998480332532835</v>
+        <v>0</v>
       </c>
       <c r="AC8">
         <v>0</v>
       </c>
       <c r="AD8">
-        <v>0.004064777810240564</v>
+        <v>0</v>
       </c>
       <c r="AE8">
-        <v>0.0324739169203016</v>
+        <v>0.007112939573602568</v>
       </c>
       <c r="AF8">
-        <v>0.004233955672066807</v>
+        <v>0</v>
       </c>
       <c r="AG8">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="AI8">
-        <v>0.001757485909706742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -1432,16 +1432,16 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1577707752257084</v>
+        <v>0.2347705134835107</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.1535361282116429</v>
+        <v>0.2271087085066725</v>
       </c>
       <c r="G9">
-        <v>0.03404754353070328</v>
+        <v>0.01091637187437871</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1450,70 +1450,70 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.01178348380583284</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.08258673236668838</v>
+        <v>0.09873899259340793</v>
       </c>
       <c r="M9">
-        <v>0.01726771215701557</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0.1139570431638661</v>
+        <v>0.1554977265781863</v>
       </c>
       <c r="O9">
-        <v>0.001599917483977246</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0.007451470419454918</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.03276794832570668</v>
+        <v>0.008601182703376474</v>
       </c>
       <c r="R9">
-        <v>0.01687497704739062</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>0.1507704928729082</v>
+        <v>0.2221048065209686</v>
       </c>
       <c r="T9">
-        <v>0.02357723252573295</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>0.03473590053355936</v>
+        <v>0.01216182564958271</v>
       </c>
       <c r="V9">
         <v>0</v>
       </c>
       <c r="W9">
-        <v>0.04465018248492168</v>
+        <v>0.03009987208991603</v>
       </c>
       <c r="X9">
-        <v>0.001895453750941787</v>
+        <v>0</v>
       </c>
       <c r="Y9">
-        <v>0.01553571429538713</v>
+        <v>0</v>
       </c>
       <c r="Z9">
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>0.02179233624575945</v>
+        <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.02182432882497321</v>
+        <v>0</v>
       </c>
       <c r="AC9">
         <v>0</v>
       </c>
       <c r="AD9">
-        <v>0.02107339763564773</v>
+        <v>0</v>
       </c>
       <c r="AE9">
-        <v>0.02725199171987227</v>
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1522,10 +1522,10 @@
         <v>0</v>
       </c>
       <c r="AH9">
-        <v>0.004076518567686319</v>
+        <v>0</v>
       </c>
       <c r="AI9">
-        <v>0.003172718804622875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -1539,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2231856471705974</v>
+        <v>0.3242201563072521</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.08136297508634832</v>
+        <v>0.08850874647011125</v>
       </c>
       <c r="G10">
-        <v>0.009417026304144262</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1557,46 +1557,46 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.02532461998005013</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.09494023671506249</v>
+        <v>0.1110743590988932</v>
       </c>
       <c r="M10">
-        <v>0.06852533654855969</v>
+        <v>0.06717239852058028</v>
       </c>
       <c r="N10">
-        <v>0.07170269375477273</v>
+        <v>0.07245321389111407</v>
       </c>
       <c r="O10">
-        <v>0.0009789456643778211</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0.01861576415996538</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.03649159015822737</v>
+        <v>0.01393183117641696</v>
       </c>
       <c r="R10">
-        <v>0.07264154536531914</v>
+        <v>0.07401359936050012</v>
       </c>
       <c r="S10">
-        <v>0.1566915645133935</v>
+        <v>0.2137059928197232</v>
       </c>
       <c r="T10">
         <v>0</v>
       </c>
       <c r="U10">
-        <v>0.02085132477053791</v>
+        <v>0</v>
       </c>
       <c r="V10">
         <v>0</v>
       </c>
       <c r="W10">
-        <v>0.03954844020534364</v>
+        <v>0.0190123618396559</v>
       </c>
       <c r="X10">
         <v>0</v>
@@ -1608,19 +1608,19 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>0.01937537571170912</v>
+        <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.001834570031605423</v>
+        <v>0</v>
       </c>
       <c r="AC10">
         <v>0</v>
       </c>
       <c r="AD10">
-        <v>0.0133400392799999</v>
+        <v>0</v>
       </c>
       <c r="AE10">
-        <v>0.03768021320123398</v>
+        <v>0.01590734051575283</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1629,10 +1629,10 @@
         <v>0</v>
       </c>
       <c r="AH10">
-        <v>0.003232109093972967</v>
+        <v>0</v>
       </c>
       <c r="AI10">
-        <v>0.00425998228477855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -1646,16 +1646,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.03305570421317329</v>
+        <v>0.01119163323923614</v>
       </c>
       <c r="E11">
-        <v>0.009766382879793084</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.09824235491809051</v>
+        <v>0.1112429001553946</v>
       </c>
       <c r="G11">
-        <v>0.08619739550062588</v>
+        <v>0.09275577991468333</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1670,46 +1670,46 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.0473906332415093</v>
+        <v>0.0331934970400104</v>
       </c>
       <c r="M11">
-        <v>0.009639038187752698</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.1527493196448381</v>
+        <v>0.1949025270528092</v>
       </c>
       <c r="O11">
-        <v>0.06270227539463009</v>
+        <v>0.05669446202931967</v>
       </c>
       <c r="P11">
-        <v>0.001964228248783543</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.08266915764132614</v>
+        <v>0.08734048914598819</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.1915665869007031</v>
+        <v>0.2544809334469796</v>
       </c>
       <c r="T11">
-        <v>0.1242713774494779</v>
+        <v>0.1511933601451743</v>
       </c>
       <c r="U11">
-        <v>0.01675051920262541</v>
+        <v>0</v>
       </c>
       <c r="V11">
-        <v>0.01642908364355263</v>
+        <v>0</v>
       </c>
       <c r="W11">
-        <v>0.01489081848031065</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>0.0002391275295626414</v>
+        <v>0</v>
       </c>
       <c r="Y11">
-        <v>0.006738088586971825</v>
+        <v>0</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -1718,7 +1718,7 @@
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.008810914224135755</v>
+        <v>0</v>
       </c>
       <c r="AC11">
         <v>0</v>
@@ -1727,10 +1727,10 @@
         <v>0</v>
       </c>
       <c r="AE11">
-        <v>0.03032759734661563</v>
+        <v>0.007004417830404354</v>
       </c>
       <c r="AF11">
-        <v>0.005599396765521757</v>
+        <v>0</v>
       </c>
       <c r="AG11">
         <v>0</v>
@@ -1873,100 +1873,100 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1170773836663444</v>
+        <v>0.1353688308727826</v>
       </c>
       <c r="E2">
-        <v>0.1170773836663444</v>
+        <v>0.1353688308727826</v>
       </c>
       <c r="F2">
-        <v>0.2739993898975903</v>
+        <v>0.3303371446260571</v>
       </c>
       <c r="G2">
-        <v>0.2811904859439005</v>
+        <v>0.3303371446260571</v>
       </c>
       <c r="H2">
-        <v>0.2811904859439005</v>
+        <v>0.3303371446260571</v>
       </c>
       <c r="I2">
-        <v>0.2811904859439005</v>
+        <v>0.3303371446260571</v>
       </c>
       <c r="J2">
-        <v>0.3303733714910692</v>
+        <v>0.3641495616630144</v>
       </c>
       <c r="K2">
-        <v>0.3303733714910692</v>
+        <v>0.3641495616630144</v>
       </c>
       <c r="L2">
-        <v>0.383544031606033</v>
+        <v>0.4039268815346623</v>
       </c>
       <c r="M2">
-        <v>0.383544031606033</v>
+        <v>0.4039268815346623</v>
       </c>
       <c r="N2">
-        <v>0.5885927582513046</v>
+        <v>0.670883018606826</v>
       </c>
       <c r="O2">
-        <v>0.6348090218904422</v>
+        <v>0.7002579703036964</v>
       </c>
       <c r="P2">
-        <v>0.6433612844989888</v>
+        <v>0.7002579703036964</v>
       </c>
       <c r="Q2">
-        <v>0.6870305294364668</v>
+        <v>0.7258230980460649</v>
       </c>
       <c r="R2">
-        <v>0.6959434088711736</v>
+        <v>0.7258230980460649</v>
       </c>
       <c r="S2">
-        <v>0.8723796181992505</v>
+        <v>0.9499807060761667</v>
       </c>
       <c r="T2">
-        <v>0.8754412016450311</v>
+        <v>0.9499807060761667</v>
       </c>
       <c r="U2">
-        <v>0.9227798851158776</v>
+        <v>0.9810345704402531</v>
       </c>
       <c r="V2">
-        <v>0.9227798851158776</v>
+        <v>0.9810345704402531</v>
       </c>
       <c r="W2">
-        <v>0.9620369695710892</v>
+        <v>1</v>
       </c>
       <c r="X2">
-        <v>0.9620369695710892</v>
+        <v>1</v>
       </c>
       <c r="Y2">
-        <v>0.9620369695710892</v>
+        <v>1</v>
       </c>
       <c r="Z2">
-        <v>0.9749485043404239</v>
+        <v>1</v>
       </c>
       <c r="AA2">
-        <v>0.9824569684417092</v>
+        <v>1</v>
       </c>
       <c r="AB2">
-        <v>0.9962778955474341</v>
+        <v>1</v>
       </c>
       <c r="AC2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AD2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AE2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AF2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AG2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AH2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AI2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -1980,94 +1980,94 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1181133407004124</v>
+        <v>0.1507546872352683</v>
       </c>
       <c r="E3">
-        <v>0.1389252612187284</v>
+        <v>0.1507546872352683</v>
       </c>
       <c r="F3">
-        <v>0.2537050934565124</v>
+        <v>0.2958819088807893</v>
       </c>
       <c r="G3">
-        <v>0.2537050934565124</v>
+        <v>0.2958819088807893</v>
       </c>
       <c r="H3">
-        <v>0.2537050934565124</v>
+        <v>0.2958819088807893</v>
       </c>
       <c r="I3">
-        <v>0.2537050934565124</v>
+        <v>0.2958819088807893</v>
       </c>
       <c r="J3">
-        <v>0.2959542009248693</v>
+        <v>0.3185663161716252</v>
       </c>
       <c r="K3">
-        <v>0.2993352707084233</v>
+        <v>0.3185663161716252</v>
       </c>
       <c r="L3">
-        <v>0.42429468135985</v>
+        <v>0.4808782031279222</v>
       </c>
       <c r="M3">
-        <v>0.4502781926437494</v>
+        <v>0.4808782031279222</v>
       </c>
       <c r="N3">
-        <v>0.5599474094504278</v>
+        <v>0.6173779343070469</v>
       </c>
       <c r="O3">
-        <v>0.5599474094504278</v>
+        <v>0.6173779343070469</v>
       </c>
       <c r="P3">
-        <v>0.5651198435905894</v>
+        <v>0.6173779343070469</v>
       </c>
       <c r="Q3">
-        <v>0.5882933826883068</v>
+        <v>0.6173779343070469</v>
       </c>
       <c r="R3">
-        <v>0.6433383253687938</v>
+        <v>0.6616636433961574</v>
       </c>
       <c r="S3">
-        <v>0.8074297564234323</v>
+        <v>0.8900362890831308</v>
       </c>
       <c r="T3">
-        <v>0.8074297564234323</v>
+        <v>0.8900362890831308</v>
       </c>
       <c r="U3">
-        <v>0.8880955927460866</v>
+        <v>0.9775739349728421</v>
       </c>
       <c r="V3">
-        <v>0.8880955927460866</v>
+        <v>0.9775739349728421</v>
       </c>
       <c r="W3">
-        <v>0.9273542539189648</v>
+        <v>0.9952100174088117</v>
       </c>
       <c r="X3">
-        <v>0.9273542539189648</v>
+        <v>0.9952100174088117</v>
       </c>
       <c r="Y3">
-        <v>0.945470788487131</v>
+        <v>0.9952100174088117</v>
       </c>
       <c r="Z3">
-        <v>0.945470788487131</v>
+        <v>0.9952100174088117</v>
       </c>
       <c r="AA3">
-        <v>0.9464281008884106</v>
+        <v>0.9952100174088117</v>
       </c>
       <c r="AB3">
-        <v>0.9464281008884106</v>
+        <v>0.9952100174088117</v>
       </c>
       <c r="AC3">
-        <v>0.9464281008884106</v>
+        <v>0.9952100174088117</v>
       </c>
       <c r="AD3">
-        <v>0.9780771939775021</v>
+        <v>1</v>
       </c>
       <c r="AE3">
-        <v>0.9928334732607093</v>
+        <v>1</v>
       </c>
       <c r="AF3">
-        <v>0.9928334732607093</v>
+        <v>1</v>
       </c>
       <c r="AG3">
-        <v>0.9928334732607093</v>
+        <v>1</v>
       </c>
       <c r="AH3">
         <v>1</v>
@@ -2087,85 +2087,85 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.09235440524709831</v>
+        <v>0.09388291779949773</v>
       </c>
       <c r="E4">
-        <v>0.09235440524709831</v>
+        <v>0.09388291779949773</v>
       </c>
       <c r="F4">
-        <v>0.2692441371754238</v>
+        <v>0.2969896522260165</v>
       </c>
       <c r="G4">
-        <v>0.2927131342953349</v>
+        <v>0.301869221000399</v>
       </c>
       <c r="H4">
-        <v>0.2927131342953349</v>
+        <v>0.301869221000399</v>
       </c>
       <c r="I4">
-        <v>0.2927131342953349</v>
+        <v>0.301869221000399</v>
       </c>
       <c r="J4">
-        <v>0.300794126510081</v>
+        <v>0.301869221000399</v>
       </c>
       <c r="K4">
-        <v>0.300794126510081</v>
+        <v>0.301869221000399</v>
       </c>
       <c r="L4">
-        <v>0.3656291889291536</v>
+        <v>0.3601957888956868</v>
       </c>
       <c r="M4">
-        <v>0.3656291889291536</v>
+        <v>0.3601957888956868</v>
       </c>
       <c r="N4">
-        <v>0.5802214944111351</v>
+        <v>0.6120161101960089</v>
       </c>
       <c r="O4">
-        <v>0.628330572052105</v>
+        <v>0.6487318797892001</v>
       </c>
       <c r="P4">
-        <v>0.628330572052105</v>
+        <v>0.6487318797892001</v>
       </c>
       <c r="Q4">
-        <v>0.6645993998868891</v>
+        <v>0.6701494619331892</v>
       </c>
       <c r="R4">
-        <v>0.6645993998868891</v>
+        <v>0.6701494619331892</v>
       </c>
       <c r="S4">
-        <v>0.8762044340004693</v>
+        <v>0.9181100811069935</v>
       </c>
       <c r="T4">
-        <v>0.9170916629847667</v>
+        <v>0.9454948656037534</v>
       </c>
       <c r="U4">
-        <v>0.9659441191965074</v>
+        <v>0.983171117020177</v>
       </c>
       <c r="V4">
-        <v>0.9659441191965074</v>
+        <v>0.983171117020177</v>
       </c>
       <c r="W4">
-        <v>0.9986614580349925</v>
+        <v>1</v>
       </c>
       <c r="X4">
-        <v>0.9986614580349925</v>
+        <v>1</v>
       </c>
       <c r="Y4">
-        <v>0.9986614580349925</v>
+        <v>1</v>
       </c>
       <c r="Z4">
-        <v>0.9986614580349925</v>
+        <v>1</v>
       </c>
       <c r="AA4">
-        <v>0.9986614580349925</v>
+        <v>1</v>
       </c>
       <c r="AB4">
-        <v>0.9986614580349925</v>
+        <v>1</v>
       </c>
       <c r="AC4">
-        <v>0.9986614580349925</v>
+        <v>1</v>
       </c>
       <c r="AD4">
-        <v>0.9986614580349925</v>
+        <v>1</v>
       </c>
       <c r="AE4">
         <v>1</v>
@@ -2194,100 +2194,100 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.09694415111231926</v>
+        <v>0.09989383218657322</v>
       </c>
       <c r="E5">
-        <v>0.09694415111231926</v>
+        <v>0.09989383218657322</v>
       </c>
       <c r="F5">
-        <v>0.2490871820875147</v>
+        <v>0.2744732300928782</v>
       </c>
       <c r="G5">
-        <v>0.2614615032613576</v>
+        <v>0.2744732300928782</v>
       </c>
       <c r="H5">
-        <v>0.2614615032613576</v>
+        <v>0.2744732300928782</v>
       </c>
       <c r="I5">
-        <v>0.2614615032613576</v>
+        <v>0.2744732300928782</v>
       </c>
       <c r="J5">
-        <v>0.2785748086267264</v>
+        <v>0.2744732300928782</v>
       </c>
       <c r="K5">
-        <v>0.2785748086267264</v>
+        <v>0.2744732300928782</v>
       </c>
       <c r="L5">
-        <v>0.3825415859168632</v>
+        <v>0.3838688639506342</v>
       </c>
       <c r="M5">
-        <v>0.3825415859168632</v>
+        <v>0.3838688639506342</v>
       </c>
       <c r="N5">
-        <v>0.5736806494335671</v>
+        <v>0.6112109403464784</v>
       </c>
       <c r="O5">
-        <v>0.5974771411121217</v>
+        <v>0.6121340263973286</v>
       </c>
       <c r="P5">
-        <v>0.5974771411121217</v>
+        <v>0.6121340263973286</v>
       </c>
       <c r="Q5">
-        <v>0.6500023971267319</v>
+        <v>0.6519279015329806</v>
       </c>
       <c r="R5">
-        <v>0.6500023971267319</v>
+        <v>0.6519279015329806</v>
       </c>
       <c r="S5">
-        <v>0.8785891760961603</v>
+        <v>0.9299377418480568</v>
       </c>
       <c r="T5">
-        <v>0.8857341170088116</v>
+        <v>0.9299377418480568</v>
       </c>
       <c r="U5">
-        <v>0.9533316845087119</v>
+        <v>0.9901248588896913</v>
       </c>
       <c r="V5">
-        <v>0.9533316845087119</v>
+        <v>0.9901248588896913</v>
       </c>
       <c r="W5">
-        <v>0.9837444936375115</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="X5">
-        <v>0.9837444936375115</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="Y5">
-        <v>0.9898123933737065</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="Z5">
-        <v>0.9898123933737065</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AA5">
-        <v>0.9898123933737065</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AB5">
-        <v>0.9898123933737065</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AC5">
-        <v>0.9898123933737065</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AD5">
-        <v>0.9898919515773812</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AE5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AF5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AG5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AH5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -2301,61 +2301,61 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.08065556527565573</v>
+        <v>0.08021140741097506</v>
       </c>
       <c r="E6">
-        <v>0.08065556527565573</v>
+        <v>0.08021140741097506</v>
       </c>
       <c r="F6">
-        <v>0.2447449070489414</v>
+        <v>0.2576956420563237</v>
       </c>
       <c r="G6">
-        <v>0.2684346536061809</v>
+        <v>0.2714923853460054</v>
       </c>
       <c r="H6">
-        <v>0.2684346536061809</v>
+        <v>0.2714923853460054</v>
       </c>
       <c r="I6">
-        <v>0.2684346536061809</v>
+        <v>0.2714923853460054</v>
       </c>
       <c r="J6">
-        <v>0.2684346536061809</v>
+        <v>0.2714923853460054</v>
       </c>
       <c r="K6">
-        <v>0.2962830417248531</v>
+        <v>0.2901375586015347</v>
       </c>
       <c r="L6">
-        <v>0.3099311409561622</v>
+        <v>0.2922270597347802</v>
       </c>
       <c r="M6">
-        <v>0.3099311409561622</v>
+        <v>0.2922270597347802</v>
       </c>
       <c r="N6">
-        <v>0.47801133758616</v>
+        <v>0.4743641070812948</v>
       </c>
       <c r="O6">
-        <v>0.591672133538627</v>
+        <v>0.5930552793576097</v>
       </c>
       <c r="P6">
-        <v>0.591672133538627</v>
+        <v>0.5930552793576097</v>
       </c>
       <c r="Q6">
-        <v>0.6260063342348606</v>
+        <v>0.6192620583897824</v>
       </c>
       <c r="R6">
-        <v>0.6260063342348606</v>
+        <v>0.6192620583897824</v>
       </c>
       <c r="S6">
-        <v>0.8584218408132295</v>
+        <v>0.8764056289020745</v>
       </c>
       <c r="T6">
-        <v>0.9313743234301097</v>
+        <v>0.9476362534683409</v>
       </c>
       <c r="U6">
-        <v>0.96961520503261</v>
+        <v>0.9783977094288185</v>
       </c>
       <c r="V6">
-        <v>0.96961520503261</v>
+        <v>0.9783977094288185</v>
       </c>
       <c r="W6">
         <v>0.9999999999999999</v>
@@ -2408,100 +2408,100 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1754855827747273</v>
+        <v>0.2314190596574855</v>
       </c>
       <c r="E7">
-        <v>0.1834847232994642</v>
+        <v>0.2314190596574855</v>
       </c>
       <c r="F7">
-        <v>0.3771006017443712</v>
+        <v>0.4911676365388564</v>
       </c>
       <c r="G7">
-        <v>0.3870444215261819</v>
+        <v>0.4911676365388564</v>
       </c>
       <c r="H7">
-        <v>0.3907252449056426</v>
+        <v>0.4911676365388564</v>
       </c>
       <c r="I7">
-        <v>0.3907252449056426</v>
+        <v>0.4911676365388564</v>
       </c>
       <c r="J7">
-        <v>0.3907252449056426</v>
+        <v>0.4911676365388564</v>
       </c>
       <c r="K7">
-        <v>0.3907252449056426</v>
+        <v>0.4911676365388564</v>
       </c>
       <c r="L7">
-        <v>0.4456483395587172</v>
+        <v>0.5342016226194926</v>
       </c>
       <c r="M7">
-        <v>0.463146751532291</v>
+        <v>0.5342016226194926</v>
       </c>
       <c r="N7">
-        <v>0.5691281384438763</v>
+        <v>0.6570168100811272</v>
       </c>
       <c r="O7">
-        <v>0.5817645609903186</v>
+        <v>0.6570168100811272</v>
       </c>
       <c r="P7">
-        <v>0.5825211397506335</v>
+        <v>0.6570168100811272</v>
       </c>
       <c r="Q7">
-        <v>0.5951697715168082</v>
+        <v>0.6570168100811272</v>
       </c>
       <c r="R7">
-        <v>0.6376799194248151</v>
+        <v>0.6806549299822636</v>
       </c>
       <c r="S7">
-        <v>0.7838937000747037</v>
+        <v>0.8663352969258887</v>
       </c>
       <c r="T7">
-        <v>0.7838937000747037</v>
+        <v>0.8663352969258887</v>
       </c>
       <c r="U7">
-        <v>0.8619881292589269</v>
+        <v>0.9455756820990817</v>
       </c>
       <c r="V7">
-        <v>0.8619881292589269</v>
+        <v>0.9455756820990817</v>
       </c>
       <c r="W7">
-        <v>0.9081333250719458</v>
+        <v>0.9748937508608462</v>
       </c>
       <c r="X7">
-        <v>0.9081333250719458</v>
+        <v>0.9748937508608462</v>
       </c>
       <c r="Y7">
-        <v>0.9250723898030097</v>
+        <v>0.9748937508608462</v>
       </c>
       <c r="Z7">
-        <v>0.9250723898030097</v>
+        <v>0.9748937508608462</v>
       </c>
       <c r="AA7">
-        <v>0.9461924594987747</v>
+        <v>0.9748937508608462</v>
       </c>
       <c r="AB7">
-        <v>0.9487945789288786</v>
+        <v>0.9748937508608462</v>
       </c>
       <c r="AC7">
-        <v>0.9487945789288786</v>
+        <v>0.9748937508608462</v>
       </c>
       <c r="AD7">
-        <v>0.9922442986960506</v>
+        <v>1</v>
       </c>
       <c r="AE7">
-        <v>0.9973245382123455</v>
+        <v>1</v>
       </c>
       <c r="AF7">
-        <v>0.9973245382123455</v>
+        <v>1</v>
       </c>
       <c r="AG7">
-        <v>0.9973245382123455</v>
+        <v>1</v>
       </c>
       <c r="AH7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AI7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -2515,100 +2515,100 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.05019682855547856</v>
+        <v>0.04192691805059623</v>
       </c>
       <c r="E8">
-        <v>0.08147629839843215</v>
+        <v>0.04669354705747647</v>
       </c>
       <c r="F8">
-        <v>0.1785419401858603</v>
+        <v>0.1806871575730232</v>
       </c>
       <c r="G8">
-        <v>0.2872861770699744</v>
+        <v>0.3376216012150275</v>
       </c>
       <c r="H8">
-        <v>0.2872861770699744</v>
+        <v>0.3376216012150275</v>
       </c>
       <c r="I8">
-        <v>0.2872861770699744</v>
+        <v>0.3376216012150275</v>
       </c>
       <c r="J8">
-        <v>0.2872861770699744</v>
+        <v>0.3376216012150275</v>
       </c>
       <c r="K8">
-        <v>0.2912044664944356</v>
+        <v>0.3376216012150275</v>
       </c>
       <c r="L8">
-        <v>0.3185989417608144</v>
+        <v>0.3376216012150275</v>
       </c>
       <c r="M8">
-        <v>0.3453358888082337</v>
+        <v>0.3376216012150275</v>
       </c>
       <c r="N8">
-        <v>0.4288546437810795</v>
+        <v>0.4450044021919737</v>
       </c>
       <c r="O8">
-        <v>0.5171700560106691</v>
+        <v>0.5618095106280592</v>
       </c>
       <c r="P8">
-        <v>0.5218937039794198</v>
+        <v>0.5618095106280592</v>
       </c>
       <c r="Q8">
-        <v>0.5551209826609163</v>
+        <v>0.5704023153998592</v>
       </c>
       <c r="R8">
-        <v>0.5551209826609163</v>
+        <v>0.5704023153998592</v>
       </c>
       <c r="S8">
-        <v>0.7136025882251825</v>
+        <v>0.8250382946798495</v>
       </c>
       <c r="T8">
-        <v>0.8256455788576915</v>
+        <v>0.9884526409677362</v>
       </c>
       <c r="U8">
-        <v>0.8567559292628497</v>
+        <v>0.9928870604263974</v>
       </c>
       <c r="V8">
-        <v>0.8832531766139298</v>
+        <v>0.9928870604263974</v>
       </c>
       <c r="W8">
-        <v>0.911897047766008</v>
+        <v>0.9928870604263974</v>
       </c>
       <c r="X8">
-        <v>0.9168614081814539</v>
+        <v>0.9928870604263974</v>
       </c>
       <c r="Y8">
-        <v>0.9410521070274275</v>
+        <v>0.9928870604263974</v>
       </c>
       <c r="Z8">
-        <v>0.9410521070274275</v>
+        <v>0.9928870604263974</v>
       </c>
       <c r="AA8">
-        <v>0.9474713833551511</v>
+        <v>0.9928870604263974</v>
       </c>
       <c r="AB8">
-        <v>0.9574698636876839</v>
+        <v>0.9928870604263974</v>
       </c>
       <c r="AC8">
-        <v>0.9574698636876839</v>
+        <v>0.9928870604263974</v>
       </c>
       <c r="AD8">
-        <v>0.9615346414979246</v>
+        <v>0.9928870604263974</v>
       </c>
       <c r="AE8">
-        <v>0.9940085584182261</v>
+        <v>1</v>
       </c>
       <c r="AF8">
-        <v>0.998242514090293</v>
+        <v>1</v>
       </c>
       <c r="AG8">
-        <v>0.998242514090293</v>
+        <v>1</v>
       </c>
       <c r="AH8">
-        <v>0.998242514090293</v>
+        <v>1</v>
       </c>
       <c r="AI8">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -2622,97 +2622,97 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1577707752257084</v>
+        <v>0.2347705134835107</v>
       </c>
       <c r="E9">
-        <v>0.1577707752257084</v>
+        <v>0.2347705134835107</v>
       </c>
       <c r="F9">
-        <v>0.3113069034373513</v>
+        <v>0.4618792219901832</v>
       </c>
       <c r="G9">
-        <v>0.3453544469680546</v>
+        <v>0.4727955938645619</v>
       </c>
       <c r="H9">
-        <v>0.3453544469680546</v>
+        <v>0.4727955938645619</v>
       </c>
       <c r="I9">
-        <v>0.3453544469680546</v>
+        <v>0.4727955938645619</v>
       </c>
       <c r="J9">
-        <v>0.3571379307738874</v>
+        <v>0.4727955938645619</v>
       </c>
       <c r="K9">
-        <v>0.3571379307738874</v>
+        <v>0.4727955938645619</v>
       </c>
       <c r="L9">
-        <v>0.4397246631405758</v>
+        <v>0.5715345864579698</v>
       </c>
       <c r="M9">
-        <v>0.4569923752975914</v>
+        <v>0.5715345864579698</v>
       </c>
       <c r="N9">
-        <v>0.5709494184614575</v>
+        <v>0.7270323130361562</v>
       </c>
       <c r="O9">
-        <v>0.5725493359454348</v>
+        <v>0.7270323130361562</v>
       </c>
       <c r="P9">
-        <v>0.5800008063648897</v>
+        <v>0.7270323130361562</v>
       </c>
       <c r="Q9">
-        <v>0.6127687546905964</v>
+        <v>0.7356334957395327</v>
       </c>
       <c r="R9">
-        <v>0.629643731737987</v>
+        <v>0.7356334957395327</v>
       </c>
       <c r="S9">
-        <v>0.7804142246108953</v>
+        <v>0.9577383022605013</v>
       </c>
       <c r="T9">
-        <v>0.8039914571366282</v>
+        <v>0.9577383022605013</v>
       </c>
       <c r="U9">
-        <v>0.8387273576701876</v>
+        <v>0.969900127910084</v>
       </c>
       <c r="V9">
-        <v>0.8387273576701876</v>
+        <v>0.969900127910084</v>
       </c>
       <c r="W9">
-        <v>0.8833775401551093</v>
+        <v>1</v>
       </c>
       <c r="X9">
-        <v>0.8852729939060511</v>
+        <v>1</v>
       </c>
       <c r="Y9">
-        <v>0.9008087082014382</v>
+        <v>1</v>
       </c>
       <c r="Z9">
-        <v>0.9008087082014382</v>
+        <v>1</v>
       </c>
       <c r="AA9">
-        <v>0.9226010444471977</v>
+        <v>1</v>
       </c>
       <c r="AB9">
-        <v>0.9444253732721709</v>
+        <v>1</v>
       </c>
       <c r="AC9">
-        <v>0.9444253732721709</v>
+        <v>1</v>
       </c>
       <c r="AD9">
-        <v>0.9654987709078187</v>
+        <v>1</v>
       </c>
       <c r="AE9">
-        <v>0.9927507626276909</v>
+        <v>1</v>
       </c>
       <c r="AF9">
-        <v>0.9927507626276909</v>
+        <v>1</v>
       </c>
       <c r="AG9">
-        <v>0.9927507626276909</v>
+        <v>1</v>
       </c>
       <c r="AH9">
-        <v>0.9968272811953772</v>
+        <v>1</v>
       </c>
       <c r="AI9">
         <v>1</v>
@@ -2729,100 +2729,100 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2231856471705974</v>
+        <v>0.3242201563072521</v>
       </c>
       <c r="E10">
-        <v>0.2231856471705974</v>
+        <v>0.3242201563072521</v>
       </c>
       <c r="F10">
-        <v>0.3045486222569457</v>
+        <v>0.4127289027773634</v>
       </c>
       <c r="G10">
-        <v>0.31396564856109</v>
+        <v>0.4127289027773634</v>
       </c>
       <c r="H10">
-        <v>0.31396564856109</v>
+        <v>0.4127289027773634</v>
       </c>
       <c r="I10">
-        <v>0.31396564856109</v>
+        <v>0.4127289027773634</v>
       </c>
       <c r="J10">
-        <v>0.3392902685411401</v>
+        <v>0.4127289027773634</v>
       </c>
       <c r="K10">
-        <v>0.3392902685411401</v>
+        <v>0.4127289027773634</v>
       </c>
       <c r="L10">
-        <v>0.4342305052562027</v>
+        <v>0.5238032618762566</v>
       </c>
       <c r="M10">
-        <v>0.5027558418047624</v>
+        <v>0.5909756603968369</v>
       </c>
       <c r="N10">
-        <v>0.5744585355595351</v>
+        <v>0.6634288742879509</v>
       </c>
       <c r="O10">
-        <v>0.5754374812239129</v>
+        <v>0.6634288742879509</v>
       </c>
       <c r="P10">
-        <v>0.5940532453838783</v>
+        <v>0.6634288742879509</v>
       </c>
       <c r="Q10">
-        <v>0.6305448355421056</v>
+        <v>0.6773607054643679</v>
       </c>
       <c r="R10">
-        <v>0.7031863809074248</v>
+        <v>0.751374304824868</v>
       </c>
       <c r="S10">
-        <v>0.8598779454208183</v>
+        <v>0.9650802976445912</v>
       </c>
       <c r="T10">
-        <v>0.8598779454208183</v>
+        <v>0.9650802976445912</v>
       </c>
       <c r="U10">
-        <v>0.8807292701913562</v>
+        <v>0.9650802976445912</v>
       </c>
       <c r="V10">
-        <v>0.8807292701913562</v>
+        <v>0.9650802976445912</v>
       </c>
       <c r="W10">
-        <v>0.9202777103966998</v>
+        <v>0.9840926594842472</v>
       </c>
       <c r="X10">
-        <v>0.9202777103966998</v>
+        <v>0.9840926594842472</v>
       </c>
       <c r="Y10">
-        <v>0.9202777103966998</v>
+        <v>0.9840926594842472</v>
       </c>
       <c r="Z10">
-        <v>0.9202777103966998</v>
+        <v>0.9840926594842472</v>
       </c>
       <c r="AA10">
-        <v>0.9396530861084089</v>
+        <v>0.9840926594842472</v>
       </c>
       <c r="AB10">
-        <v>0.9414876561400144</v>
+        <v>0.9840926594842472</v>
       </c>
       <c r="AC10">
-        <v>0.9414876561400144</v>
+        <v>0.9840926594842472</v>
       </c>
       <c r="AD10">
-        <v>0.9548276954200143</v>
+        <v>0.9840926594842472</v>
       </c>
       <c r="AE10">
-        <v>0.9925079086212483</v>
+        <v>1</v>
       </c>
       <c r="AF10">
-        <v>0.9925079086212483</v>
+        <v>1</v>
       </c>
       <c r="AG10">
-        <v>0.9925079086212483</v>
+        <v>1</v>
       </c>
       <c r="AH10">
-        <v>0.9957400177152212</v>
+        <v>1</v>
       </c>
       <c r="AI10">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -2836,100 +2836,100 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.03305570421317329</v>
+        <v>0.01119163323923614</v>
       </c>
       <c r="E11">
-        <v>0.04282208709296637</v>
+        <v>0.01119163323923614</v>
       </c>
       <c r="F11">
-        <v>0.1410644420110569</v>
+        <v>0.1224345333946307</v>
       </c>
       <c r="G11">
-        <v>0.2272618375116828</v>
+        <v>0.215190313309314</v>
       </c>
       <c r="H11">
-        <v>0.2272618375116828</v>
+        <v>0.215190313309314</v>
       </c>
       <c r="I11">
-        <v>0.2272618375116828</v>
+        <v>0.215190313309314</v>
       </c>
       <c r="J11">
-        <v>0.2272618375116828</v>
+        <v>0.215190313309314</v>
       </c>
       <c r="K11">
-        <v>0.2272618375116828</v>
+        <v>0.215190313309314</v>
       </c>
       <c r="L11">
-        <v>0.2746524707531921</v>
+        <v>0.2483838103493244</v>
       </c>
       <c r="M11">
-        <v>0.2842915089409448</v>
+        <v>0.2483838103493244</v>
       </c>
       <c r="N11">
-        <v>0.437040828585783</v>
+        <v>0.4432863374021336</v>
       </c>
       <c r="O11">
-        <v>0.4997431039804131</v>
+        <v>0.4999807994314533</v>
       </c>
       <c r="P11">
-        <v>0.5017073322291966</v>
+        <v>0.4999807994314533</v>
       </c>
       <c r="Q11">
-        <v>0.5843764898705227</v>
+        <v>0.5873212885774415</v>
       </c>
       <c r="R11">
-        <v>0.5843764898705227</v>
+        <v>0.5873212885774415</v>
       </c>
       <c r="S11">
-        <v>0.7759430767712258</v>
+        <v>0.8418022220244211</v>
       </c>
       <c r="T11">
-        <v>0.9002144542207037</v>
+        <v>0.9929955821695955</v>
       </c>
       <c r="U11">
-        <v>0.9169649734233291</v>
+        <v>0.9929955821695955</v>
       </c>
       <c r="V11">
-        <v>0.9333940570668817</v>
+        <v>0.9929955821695955</v>
       </c>
       <c r="W11">
-        <v>0.9482848755471924</v>
+        <v>0.9929955821695955</v>
       </c>
       <c r="X11">
-        <v>0.9485240030767551</v>
+        <v>0.9929955821695955</v>
       </c>
       <c r="Y11">
-        <v>0.9552620916637269</v>
+        <v>0.9929955821695955</v>
       </c>
       <c r="Z11">
-        <v>0.9552620916637269</v>
+        <v>0.9929955821695955</v>
       </c>
       <c r="AA11">
-        <v>0.9552620916637269</v>
+        <v>0.9929955821695955</v>
       </c>
       <c r="AB11">
-        <v>0.9640730058878626</v>
+        <v>0.9929955821695955</v>
       </c>
       <c r="AC11">
-        <v>0.9640730058878626</v>
+        <v>0.9929955821695955</v>
       </c>
       <c r="AD11">
-        <v>0.9640730058878626</v>
+        <v>0.9929955821695955</v>
       </c>
       <c r="AE11">
-        <v>0.9944006032344782</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2991,34 +2991,34 @@
         <v>35</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>0.5</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
+      <c r="E2">
+        <v>0.670883018606826</v>
+      </c>
+      <c r="F2">
         <v>13</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.5885927582513046</v>
-      </c>
       <c r="G2">
+        <v>900</v>
+      </c>
+      <c r="H2">
         <v>12</v>
       </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>900</v>
+      <c r="I2" t="s">
+        <v>57</v>
       </c>
       <c r="J2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K2" t="s">
         <v>58</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
       </c>
       <c r="L2" t="s">
         <v>59</v>
@@ -3032,34 +3032,34 @@
         <v>36</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>0.5</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
+      <c r="E3">
+        <v>0.6173779343070469</v>
+      </c>
+      <c r="F3">
         <v>13</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.5599474094504278</v>
-      </c>
       <c r="G3">
+        <v>900</v>
+      </c>
+      <c r="H3">
         <v>12</v>
       </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>900</v>
+      <c r="I3" t="s">
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K3" t="s">
         <v>58</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
       </c>
       <c r="L3" t="s">
         <v>59</v>
@@ -3073,34 +3073,34 @@
         <v>37</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>0.5</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
+      <c r="E4">
+        <v>0.6120161101960089</v>
+      </c>
+      <c r="F4">
         <v>13</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.5802214944111351</v>
-      </c>
       <c r="G4">
+        <v>900</v>
+      </c>
+      <c r="H4">
         <v>12</v>
       </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>900</v>
+      <c r="I4" t="s">
+        <v>57</v>
       </c>
       <c r="J4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K4" t="s">
         <v>58</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
       </c>
       <c r="L4" t="s">
         <v>59</v>
@@ -3114,34 +3114,34 @@
         <v>38</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>0.5</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
+      <c r="E5">
+        <v>0.6112109403464784</v>
+      </c>
+      <c r="F5">
         <v>13</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.5736806494335671</v>
-      </c>
       <c r="G5">
+        <v>900</v>
+      </c>
+      <c r="H5">
         <v>12</v>
       </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>900</v>
+      <c r="I5" t="s">
+        <v>57</v>
       </c>
       <c r="J5" t="s">
-        <v>57</v>
-      </c>
-      <c r="K5" t="s">
         <v>58</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
       </c>
       <c r="L5" t="s">
         <v>59</v>
@@ -3155,34 +3155,34 @@
         <v>39</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>0.5</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
+      <c r="E6">
+        <v>0.5930552793576097</v>
+      </c>
+      <c r="F6">
         <v>14</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.591672133538627</v>
-      </c>
       <c r="G6">
+        <v>900</v>
+      </c>
+      <c r="H6">
         <v>13</v>
       </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>900</v>
+      <c r="I6" t="s">
+        <v>57</v>
       </c>
       <c r="J6" t="s">
-        <v>57</v>
-      </c>
-      <c r="K6" t="s">
         <v>58</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
       </c>
       <c r="L6" t="s">
         <v>59</v>
@@ -3196,34 +3196,34 @@
         <v>40</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.5</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>13</v>
-      </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.5342016226194926</v>
       </c>
       <c r="F7">
-        <v>0.5691281384438763</v>
+        <v>11</v>
       </c>
       <c r="G7">
-        <v>12</v>
+        <v>900</v>
       </c>
       <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>900</v>
+        <v>10</v>
+      </c>
+      <c r="I7" t="s">
+        <v>57</v>
       </c>
       <c r="J7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K7" t="s">
         <v>58</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
       </c>
       <c r="L7" t="s">
         <v>59</v>
@@ -3237,34 +3237,34 @@
         <v>41</v>
       </c>
       <c r="B8">
+        <v>0.04192691805059623</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
         <v>0.5</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
+      <c r="E8">
+        <v>0.5618095106280592</v>
+      </c>
+      <c r="F8">
         <v>14</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.5171700560106691</v>
-      </c>
       <c r="G8">
-        <v>13</v>
+        <v>900</v>
       </c>
       <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>900</v>
+        <v>11</v>
+      </c>
+      <c r="I8" t="s">
+        <v>57</v>
       </c>
       <c r="J8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K8" t="s">
         <v>58</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
       </c>
       <c r="L8" t="s">
         <v>59</v>
@@ -3278,34 +3278,34 @@
         <v>42</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.5</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>13</v>
-      </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.5715345864579698</v>
       </c>
       <c r="F9">
-        <v>0.5709494184614575</v>
+        <v>11</v>
       </c>
       <c r="G9">
-        <v>12</v>
+        <v>900</v>
       </c>
       <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>900</v>
+        <v>10</v>
+      </c>
+      <c r="I9" t="s">
+        <v>57</v>
       </c>
       <c r="J9" t="s">
-        <v>57</v>
-      </c>
-      <c r="K9" t="s">
         <v>58</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
       </c>
       <c r="L9" t="s">
         <v>59</v>
@@ -3319,34 +3319,34 @@
         <v>43</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.5</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>12</v>
-      </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.5238032618762566</v>
       </c>
       <c r="F10">
-        <v>0.5027558418047624</v>
+        <v>11</v>
       </c>
       <c r="G10">
-        <v>11</v>
+        <v>900</v>
       </c>
       <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>900</v>
+        <v>10</v>
+      </c>
+      <c r="I10" t="s">
+        <v>57</v>
       </c>
       <c r="J10" t="s">
-        <v>57</v>
-      </c>
-      <c r="K10" t="s">
         <v>58</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
       </c>
       <c r="L10" t="s">
         <v>59</v>
@@ -3360,34 +3360,34 @@
         <v>44</v>
       </c>
       <c r="B11">
-        <v>0.5</v>
+        <v>0.01119163323923614</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
       <c r="D11">
-        <v>15</v>
+        <v>0.5</v>
       </c>
       <c r="E11">
-        <v>0.03305570421317329</v>
+        <v>0.5873212885774415</v>
       </c>
       <c r="F11">
-        <v>0.5017073322291966</v>
+        <v>16</v>
       </c>
       <c r="G11">
-        <v>12</v>
+        <v>900</v>
       </c>
       <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>900</v>
+        <v>13</v>
+      </c>
+      <c r="I11" t="s">
+        <v>57</v>
       </c>
       <c r="J11" t="s">
-        <v>57</v>
-      </c>
-      <c r="K11" t="s">
         <v>58</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
       </c>
       <c r="L11" t="s">
         <v>59</v>
@@ -3455,34 +3455,34 @@
         <v>35</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>0.7</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>18</v>
-      </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.7002579703036964</v>
       </c>
       <c r="F2">
-        <v>0.8723796181992505</v>
+        <v>14</v>
       </c>
       <c r="G2">
-        <v>17</v>
+        <v>900</v>
       </c>
       <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>900</v>
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>57</v>
       </c>
       <c r="J2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K2" t="s">
         <v>58</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
       </c>
       <c r="L2" t="s">
         <v>59</v>
@@ -3496,34 +3496,34 @@
         <v>36</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>0.7</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
+      <c r="E3">
+        <v>0.8900362890831308</v>
+      </c>
+      <c r="F3">
         <v>18</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.8074297564234323</v>
-      </c>
       <c r="G3">
+        <v>900</v>
+      </c>
+      <c r="H3">
         <v>17</v>
       </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>900</v>
+      <c r="I3" t="s">
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K3" t="s">
         <v>58</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
       </c>
       <c r="L3" t="s">
         <v>59</v>
@@ -3537,34 +3537,34 @@
         <v>37</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>0.7</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
+      <c r="E4">
+        <v>0.9181100811069935</v>
+      </c>
+      <c r="F4">
         <v>18</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.8762044340004693</v>
-      </c>
       <c r="G4">
+        <v>900</v>
+      </c>
+      <c r="H4">
         <v>17</v>
       </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>900</v>
+      <c r="I4" t="s">
+        <v>57</v>
       </c>
       <c r="J4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K4" t="s">
         <v>58</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
       </c>
       <c r="L4" t="s">
         <v>59</v>
@@ -3578,34 +3578,34 @@
         <v>38</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>0.7</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
+      <c r="E5">
+        <v>0.9299377418480568</v>
+      </c>
+      <c r="F5">
         <v>18</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.8785891760961603</v>
-      </c>
       <c r="G5">
+        <v>900</v>
+      </c>
+      <c r="H5">
         <v>17</v>
       </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>900</v>
+      <c r="I5" t="s">
+        <v>57</v>
       </c>
       <c r="J5" t="s">
-        <v>57</v>
-      </c>
-      <c r="K5" t="s">
         <v>58</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
       </c>
       <c r="L5" t="s">
         <v>59</v>
@@ -3619,34 +3619,34 @@
         <v>39</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>0.7</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
+      <c r="E6">
+        <v>0.8764056289020745</v>
+      </c>
+      <c r="F6">
         <v>18</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.8584218408132295</v>
-      </c>
       <c r="G6">
+        <v>900</v>
+      </c>
+      <c r="H6">
         <v>17</v>
       </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>900</v>
+      <c r="I6" t="s">
+        <v>57</v>
       </c>
       <c r="J6" t="s">
-        <v>57</v>
-      </c>
-      <c r="K6" t="s">
         <v>58</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
       </c>
       <c r="L6" t="s">
         <v>59</v>
@@ -3660,34 +3660,34 @@
         <v>40</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.7</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
+      <c r="E7">
+        <v>0.8663352969258887</v>
+      </c>
+      <c r="F7">
         <v>18</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.7838937000747037</v>
-      </c>
       <c r="G7">
+        <v>900</v>
+      </c>
+      <c r="H7">
         <v>17</v>
       </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>900</v>
+      <c r="I7" t="s">
+        <v>57</v>
       </c>
       <c r="J7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K7" t="s">
         <v>58</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
       </c>
       <c r="L7" t="s">
         <v>59</v>
@@ -3701,34 +3701,34 @@
         <v>41</v>
       </c>
       <c r="B8">
+        <v>0.04192691805059623</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
         <v>0.7</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
+      <c r="E8">
+        <v>0.8250382946798495</v>
+      </c>
+      <c r="F8">
         <v>18</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.7136025882251825</v>
-      </c>
       <c r="G8">
-        <v>17</v>
+        <v>900</v>
       </c>
       <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>900</v>
+        <v>15</v>
+      </c>
+      <c r="I8" t="s">
+        <v>57</v>
       </c>
       <c r="J8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K8" t="s">
         <v>58</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
       </c>
       <c r="L8" t="s">
         <v>59</v>
@@ -3742,34 +3742,34 @@
         <v>42</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.7</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>18</v>
-      </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.7270323130361562</v>
       </c>
       <c r="F9">
-        <v>0.7804142246108953</v>
+        <v>13</v>
       </c>
       <c r="G9">
-        <v>17</v>
+        <v>900</v>
       </c>
       <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>900</v>
+        <v>12</v>
+      </c>
+      <c r="I9" t="s">
+        <v>57</v>
       </c>
       <c r="J9" t="s">
-        <v>57</v>
-      </c>
-      <c r="K9" t="s">
         <v>58</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
       </c>
       <c r="L9" t="s">
         <v>59</v>
@@ -3783,34 +3783,34 @@
         <v>43</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.7</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
+      <c r="E10">
+        <v>0.751374304824868</v>
+      </c>
+      <c r="F10">
         <v>17</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.7031863809074248</v>
-      </c>
       <c r="G10">
+        <v>900</v>
+      </c>
+      <c r="H10">
         <v>16</v>
       </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>900</v>
+      <c r="I10" t="s">
+        <v>57</v>
       </c>
       <c r="J10" t="s">
-        <v>57</v>
-      </c>
-      <c r="K10" t="s">
         <v>58</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
       </c>
       <c r="L10" t="s">
         <v>59</v>
@@ -3824,34 +3824,34 @@
         <v>44</v>
       </c>
       <c r="B11">
-        <v>0.7</v>
+        <v>0.01119163323923614</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
       <c r="D11">
+        <v>0.7</v>
+      </c>
+      <c r="E11">
+        <v>0.8418022220244211</v>
+      </c>
+      <c r="F11">
         <v>18</v>
       </c>
-      <c r="E11">
-        <v>0.03305570421317329</v>
-      </c>
-      <c r="F11">
-        <v>0.7759430767712258</v>
-      </c>
       <c r="G11">
+        <v>900</v>
+      </c>
+      <c r="H11">
         <v>15</v>
       </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>900</v>
+      <c r="I11" t="s">
+        <v>57</v>
       </c>
       <c r="J11" t="s">
-        <v>57</v>
-      </c>
-      <c r="K11" t="s">
         <v>58</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
       </c>
       <c r="L11" t="s">
         <v>59</v>
@@ -3919,34 +3919,34 @@
         <v>35</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>0.8</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
+      <c r="E2">
+        <v>0.9499807060761667</v>
+      </c>
+      <c r="F2">
         <v>18</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.8723796181992505</v>
-      </c>
       <c r="G2">
+        <v>900</v>
+      </c>
+      <c r="H2">
         <v>17</v>
       </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>900</v>
+      <c r="I2" t="s">
+        <v>57</v>
       </c>
       <c r="J2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K2" t="s">
         <v>58</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
       </c>
       <c r="L2" t="s">
         <v>59</v>
@@ -3960,34 +3960,34 @@
         <v>36</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>0.8</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
+      <c r="E3">
+        <v>0.8900362890831308</v>
+      </c>
+      <c r="F3">
         <v>18</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.8074297564234323</v>
-      </c>
       <c r="G3">
+        <v>900</v>
+      </c>
+      <c r="H3">
         <v>17</v>
       </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>900</v>
+      <c r="I3" t="s">
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K3" t="s">
         <v>58</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
       </c>
       <c r="L3" t="s">
         <v>59</v>
@@ -4001,34 +4001,34 @@
         <v>37</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>0.8</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
+      <c r="E4">
+        <v>0.9181100811069935</v>
+      </c>
+      <c r="F4">
         <v>18</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.8762044340004693</v>
-      </c>
       <c r="G4">
+        <v>900</v>
+      </c>
+      <c r="H4">
         <v>17</v>
       </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>900</v>
+      <c r="I4" t="s">
+        <v>57</v>
       </c>
       <c r="J4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K4" t="s">
         <v>58</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
       </c>
       <c r="L4" t="s">
         <v>59</v>
@@ -4042,34 +4042,34 @@
         <v>38</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>0.8</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
+      <c r="E5">
+        <v>0.9299377418480568</v>
+      </c>
+      <c r="F5">
         <v>18</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.8785891760961603</v>
-      </c>
       <c r="G5">
+        <v>900</v>
+      </c>
+      <c r="H5">
         <v>17</v>
       </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>900</v>
+      <c r="I5" t="s">
+        <v>57</v>
       </c>
       <c r="J5" t="s">
-        <v>57</v>
-      </c>
-      <c r="K5" t="s">
         <v>58</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
       </c>
       <c r="L5" t="s">
         <v>59</v>
@@ -4083,34 +4083,34 @@
         <v>39</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>0.8</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
+      <c r="E6">
+        <v>0.8764056289020745</v>
+      </c>
+      <c r="F6">
         <v>18</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.8584218408132295</v>
-      </c>
       <c r="G6">
+        <v>900</v>
+      </c>
+      <c r="H6">
         <v>17</v>
       </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>900</v>
+      <c r="I6" t="s">
+        <v>57</v>
       </c>
       <c r="J6" t="s">
-        <v>57</v>
-      </c>
-      <c r="K6" t="s">
         <v>58</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
       </c>
       <c r="L6" t="s">
         <v>59</v>
@@ -4124,34 +4124,34 @@
         <v>40</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.8</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.8663352969258887</v>
       </c>
       <c r="F7">
-        <v>0.8619881292589269</v>
+        <v>18</v>
       </c>
       <c r="G7">
-        <v>19</v>
+        <v>900</v>
       </c>
       <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>900</v>
+        <v>17</v>
+      </c>
+      <c r="I7" t="s">
+        <v>57</v>
       </c>
       <c r="J7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K7" t="s">
         <v>58</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
       </c>
       <c r="L7" t="s">
         <v>59</v>
@@ -4165,34 +4165,34 @@
         <v>41</v>
       </c>
       <c r="B8">
+        <v>0.04192691805059623</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
         <v>0.8</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>19</v>
-      </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.8250382946798495</v>
       </c>
       <c r="F8">
-        <v>0.8256455788576915</v>
+        <v>18</v>
       </c>
       <c r="G8">
-        <v>18</v>
+        <v>900</v>
       </c>
       <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>900</v>
+        <v>15</v>
+      </c>
+      <c r="I8" t="s">
+        <v>57</v>
       </c>
       <c r="J8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K8" t="s">
         <v>58</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
       </c>
       <c r="L8" t="s">
         <v>59</v>
@@ -4206,34 +4206,34 @@
         <v>42</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.8</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>19</v>
-      </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.9577383022605013</v>
       </c>
       <c r="F9">
-        <v>0.8039914571366282</v>
+        <v>18</v>
       </c>
       <c r="G9">
-        <v>18</v>
+        <v>900</v>
       </c>
       <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>900</v>
+        <v>17</v>
+      </c>
+      <c r="I9" t="s">
+        <v>57</v>
       </c>
       <c r="J9" t="s">
-        <v>57</v>
-      </c>
-      <c r="K9" t="s">
         <v>58</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
       </c>
       <c r="L9" t="s">
         <v>59</v>
@@ -4247,34 +4247,34 @@
         <v>43</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.8</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
+      <c r="E10">
+        <v>0.9650802976445912</v>
+      </c>
+      <c r="F10">
         <v>18</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.8598779454208183</v>
-      </c>
       <c r="G10">
+        <v>900</v>
+      </c>
+      <c r="H10">
         <v>17</v>
       </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>900</v>
+      <c r="I10" t="s">
+        <v>57</v>
       </c>
       <c r="J10" t="s">
-        <v>57</v>
-      </c>
-      <c r="K10" t="s">
         <v>58</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
       </c>
       <c r="L10" t="s">
         <v>59</v>
@@ -4288,34 +4288,34 @@
         <v>44</v>
       </c>
       <c r="B11">
-        <v>0.8</v>
+        <v>0.01119163323923614</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
       <c r="D11">
-        <v>19</v>
+        <v>0.8</v>
       </c>
       <c r="E11">
-        <v>0.03305570421317329</v>
+        <v>0.8418022220244211</v>
       </c>
       <c r="F11">
-        <v>0.9002144542207037</v>
+        <v>18</v>
       </c>
       <c r="G11">
-        <v>16</v>
+        <v>900</v>
       </c>
       <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>900</v>
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>57</v>
       </c>
       <c r="J11" t="s">
-        <v>57</v>
-      </c>
-      <c r="K11" t="s">
         <v>58</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
       </c>
       <c r="L11" t="s">
         <v>59</v>
@@ -4383,34 +4383,34 @@
         <v>35</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>0.9</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.9499807060761667</v>
       </c>
       <c r="F2">
-        <v>0.9227798851158776</v>
+        <v>18</v>
       </c>
       <c r="G2">
-        <v>19</v>
+        <v>900</v>
       </c>
       <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>900</v>
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>57</v>
       </c>
       <c r="J2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K2" t="s">
         <v>58</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
       </c>
       <c r="L2" t="s">
         <v>59</v>
@@ -4424,34 +4424,34 @@
         <v>36</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>0.9</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>22</v>
-      </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.9775739349728421</v>
       </c>
       <c r="F3">
-        <v>0.9273542539189648</v>
+        <v>20</v>
       </c>
       <c r="G3">
-        <v>21</v>
+        <v>900</v>
       </c>
       <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>900</v>
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K3" t="s">
         <v>58</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
       </c>
       <c r="L3" t="s">
         <v>59</v>
@@ -4465,34 +4465,34 @@
         <v>37</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>0.9</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>19</v>
-      </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.9181100811069935</v>
       </c>
       <c r="F4">
-        <v>0.9170916629847667</v>
+        <v>18</v>
       </c>
       <c r="G4">
-        <v>18</v>
+        <v>900</v>
       </c>
       <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>900</v>
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>57</v>
       </c>
       <c r="J4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K4" t="s">
         <v>58</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
       </c>
       <c r="L4" t="s">
         <v>59</v>
@@ -4506,34 +4506,34 @@
         <v>38</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>0.9</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.9299377418480568</v>
       </c>
       <c r="F5">
-        <v>0.9533316845087119</v>
+        <v>18</v>
       </c>
       <c r="G5">
-        <v>19</v>
+        <v>900</v>
       </c>
       <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>900</v>
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>57</v>
       </c>
       <c r="J5" t="s">
-        <v>57</v>
-      </c>
-      <c r="K5" t="s">
         <v>58</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
       </c>
       <c r="L5" t="s">
         <v>59</v>
@@ -4547,34 +4547,34 @@
         <v>39</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>0.9</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
+      <c r="E6">
+        <v>0.9476362534683409</v>
+      </c>
+      <c r="F6">
         <v>19</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.9313743234301097</v>
-      </c>
       <c r="G6">
+        <v>900</v>
+      </c>
+      <c r="H6">
         <v>18</v>
       </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>900</v>
+      <c r="I6" t="s">
+        <v>57</v>
       </c>
       <c r="J6" t="s">
-        <v>57</v>
-      </c>
-      <c r="K6" t="s">
         <v>58</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
       </c>
       <c r="L6" t="s">
         <v>59</v>
@@ -4588,34 +4588,34 @@
         <v>40</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.9</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.9455756820990817</v>
       </c>
       <c r="F7">
-        <v>0.9081333250719458</v>
+        <v>20</v>
       </c>
       <c r="G7">
-        <v>21</v>
+        <v>900</v>
       </c>
       <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>900</v>
+        <v>19</v>
+      </c>
+      <c r="I7" t="s">
+        <v>57</v>
       </c>
       <c r="J7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K7" t="s">
         <v>58</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
       </c>
       <c r="L7" t="s">
         <v>59</v>
@@ -4629,34 +4629,34 @@
         <v>41</v>
       </c>
       <c r="B8">
+        <v>0.04192691805059623</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
         <v>0.9</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>22</v>
-      </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.9884526409677362</v>
       </c>
       <c r="F8">
-        <v>0.911897047766008</v>
+        <v>19</v>
       </c>
       <c r="G8">
-        <v>21</v>
+        <v>900</v>
       </c>
       <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>900</v>
+        <v>16</v>
+      </c>
+      <c r="I8" t="s">
+        <v>57</v>
       </c>
       <c r="J8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K8" t="s">
         <v>58</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
       </c>
       <c r="L8" t="s">
         <v>59</v>
@@ -4670,34 +4670,34 @@
         <v>42</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.9</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>24</v>
-      </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.9577383022605013</v>
       </c>
       <c r="F9">
-        <v>0.9008087082014382</v>
+        <v>18</v>
       </c>
       <c r="G9">
-        <v>23</v>
+        <v>900</v>
       </c>
       <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>900</v>
+        <v>17</v>
+      </c>
+      <c r="I9" t="s">
+        <v>57</v>
       </c>
       <c r="J9" t="s">
-        <v>57</v>
-      </c>
-      <c r="K9" t="s">
         <v>58</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
       </c>
       <c r="L9" t="s">
         <v>59</v>
@@ -4711,34 +4711,34 @@
         <v>43</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.9</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>22</v>
-      </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.9650802976445912</v>
       </c>
       <c r="F10">
-        <v>0.9202777103966998</v>
+        <v>18</v>
       </c>
       <c r="G10">
-        <v>21</v>
+        <v>900</v>
       </c>
       <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>900</v>
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
+        <v>57</v>
       </c>
       <c r="J10" t="s">
-        <v>57</v>
-      </c>
-      <c r="K10" t="s">
         <v>58</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
       </c>
       <c r="L10" t="s">
         <v>59</v>
@@ -4752,34 +4752,34 @@
         <v>44</v>
       </c>
       <c r="B11">
-        <v>0.9</v>
+        <v>0.01119163323923614</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
       <c r="D11">
+        <v>0.9</v>
+      </c>
+      <c r="E11">
+        <v>0.9929955821695955</v>
+      </c>
+      <c r="F11">
         <v>19</v>
       </c>
-      <c r="E11">
-        <v>0.03305570421317329</v>
-      </c>
-      <c r="F11">
-        <v>0.9002144542207037</v>
-      </c>
       <c r="G11">
+        <v>900</v>
+      </c>
+      <c r="H11">
         <v>16</v>
       </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>900</v>
+      <c r="I11" t="s">
+        <v>57</v>
       </c>
       <c r="J11" t="s">
-        <v>57</v>
-      </c>
-      <c r="K11" t="s">
         <v>58</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
       </c>
       <c r="L11" t="s">
         <v>59</v>
